--- a/HW-SW-VGL-2.xlsx
+++ b/HW-SW-VGL-2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="115">
   <si>
     <t>Nutzer 1</t>
   </si>
@@ -322,16 +322,61 @@
   </si>
   <si>
     <t>Prozent</t>
+  </si>
+  <si>
+    <t>285xxx</t>
+  </si>
+  <si>
+    <t>Nutzer 11</t>
+  </si>
+  <si>
+    <t>Nutzer 12</t>
+  </si>
+  <si>
+    <t>94263x</t>
+  </si>
+  <si>
+    <t>203xxx</t>
+  </si>
+  <si>
+    <t>50938x</t>
+  </si>
+  <si>
+    <t>54973x</t>
+  </si>
+  <si>
+    <t>3148xx</t>
+  </si>
+  <si>
+    <t>Nutzer 13</t>
+  </si>
+  <si>
+    <t>52814x</t>
+  </si>
+  <si>
+    <t>942xxx</t>
+  </si>
+  <si>
+    <t>643xxx</t>
+  </si>
+  <si>
+    <t>714xxx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -640,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -664,18 +709,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,13 +1023,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I179"/>
+  <dimension ref="A1:Q241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="L178" sqref="L178"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="Q190" sqref="Q190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
@@ -4857,53 +4906,1454 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="27" t="s">
+    <row r="178" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="179" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B179" s="20"/>
+      <c r="C179" s="20"/>
+      <c r="D179" s="20"/>
+      <c r="E179" s="20"/>
+      <c r="F179" s="20"/>
+      <c r="G179" s="20"/>
+      <c r="H179" s="21"/>
+    </row>
+    <row r="180" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B180" s="20"/>
+      <c r="C180" s="20"/>
+      <c r="D180" s="20"/>
+      <c r="E180" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F180" s="14"/>
+      <c r="G180" s="14"/>
+      <c r="H180" s="12"/>
+    </row>
+    <row r="181" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B181" s="21"/>
+      <c r="C181" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D181" s="21"/>
+      <c r="E181" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F181" s="11"/>
+      <c r="G181" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H181" s="9"/>
+    </row>
+    <row r="182" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E182" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F182" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G182" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H182" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A183" s="10">
+        <v>844618</v>
+      </c>
+      <c r="B183" s="9">
+        <v>844618</v>
+      </c>
+      <c r="C183" s="10">
+        <v>208397</v>
+      </c>
+      <c r="D183" s="10">
+        <v>208397</v>
+      </c>
+      <c r="E183" s="10">
+        <v>976820</v>
+      </c>
+      <c r="F183" s="10">
+        <v>976820</v>
+      </c>
+      <c r="G183" s="1">
+        <v>314962</v>
+      </c>
+      <c r="H183" s="9">
+        <v>314962</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A184" s="10">
+        <v>726387</v>
+      </c>
+      <c r="B184" s="9">
+        <v>726387</v>
+      </c>
+      <c r="C184" s="10">
+        <v>509384</v>
+      </c>
+      <c r="D184" s="10">
+        <v>509384</v>
+      </c>
+      <c r="E184" s="10">
+        <v>735740</v>
+      </c>
+      <c r="F184" s="10">
+        <v>735740</v>
+      </c>
+      <c r="G184" s="10">
+        <v>183887</v>
+      </c>
+      <c r="H184" s="9">
+        <v>183887</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A185" s="10">
+        <v>543830</v>
+      </c>
+      <c r="B185" s="9">
+        <v>543830</v>
+      </c>
+      <c r="C185" s="10">
+        <v>973722</v>
+      </c>
+      <c r="D185" s="10">
+        <v>973722</v>
+      </c>
+      <c r="E185" s="10">
+        <v>243852</v>
+      </c>
+      <c r="F185" s="10">
+        <v>243852</v>
+      </c>
+      <c r="G185" s="10">
+        <v>634535</v>
+      </c>
+      <c r="H185" s="9">
+        <v>634535</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A186" s="10">
+        <v>575573</v>
+      </c>
+      <c r="B186" s="9">
+        <v>575573</v>
+      </c>
+      <c r="C186" s="10">
+        <v>799320</v>
+      </c>
+      <c r="D186" s="10">
+        <v>799320</v>
+      </c>
+      <c r="E186" s="10">
+        <v>136158</v>
+      </c>
+      <c r="F186" s="10">
+        <v>136158</v>
+      </c>
+      <c r="G186" s="10">
+        <v>194595</v>
+      </c>
+      <c r="H186" s="9">
+        <v>194595</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A187" s="10">
+        <v>107815</v>
+      </c>
+      <c r="B187" s="9">
+        <v>107815</v>
+      </c>
+      <c r="C187" s="10">
+        <v>568930</v>
+      </c>
+      <c r="D187" s="10">
+        <v>568930</v>
+      </c>
+      <c r="E187" s="10">
+        <v>377792</v>
+      </c>
+      <c r="F187" s="10">
+        <v>377792</v>
+      </c>
+      <c r="G187" s="10">
+        <v>814557</v>
+      </c>
+      <c r="H187" s="9">
+        <v>814557</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="10">
+        <v>942685</v>
+      </c>
+      <c r="B188" s="9">
+        <v>942685</v>
+      </c>
+      <c r="C188" s="10">
+        <v>307267</v>
+      </c>
+      <c r="D188" s="10">
+        <v>307267</v>
+      </c>
+      <c r="E188" s="10">
+        <v>549793</v>
+      </c>
+      <c r="F188" s="10">
+        <v>549793</v>
+      </c>
+      <c r="G188" s="10">
+        <v>622538</v>
+      </c>
+      <c r="H188" s="9">
+        <v>622538</v>
+      </c>
+      <c r="J188" t="s">
         <v>100</v>
       </c>
-      <c r="B178" s="26">
-        <f>SUM(B175,B159,B143)</f>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A189" s="10">
+        <v>861330</v>
+      </c>
+      <c r="B189" s="9">
+        <v>861330</v>
+      </c>
+      <c r="C189" s="34">
+        <v>271999</v>
+      </c>
+      <c r="D189" s="34">
+        <v>271909</v>
+      </c>
+      <c r="E189" s="10">
+        <v>525481</v>
+      </c>
+      <c r="F189" s="10">
+        <v>525481</v>
+      </c>
+      <c r="G189" s="10">
+        <v>714876</v>
+      </c>
+      <c r="H189" s="9">
+        <v>714876</v>
+      </c>
+      <c r="J189" s="24">
+        <v>70</v>
+      </c>
+      <c r="K189" s="25">
+        <f>SUM(B143,B159,B175,B193,B209,B225,B241)</f>
+        <v>12</v>
+      </c>
+      <c r="L189" s="26"/>
+      <c r="M189" s="25">
+        <f>SUM(D143,D159,D175,D193,D209,D225,D241)</f>
+        <v>9</v>
+      </c>
+      <c r="N189" s="26"/>
+      <c r="O189" s="25">
+        <f>SUM(F143,F159,F175,F193,F209,F225,F241)</f>
+        <v>34</v>
+      </c>
+      <c r="P189" s="20"/>
+      <c r="Q189" s="21">
+        <f>SUM(H143,H159,H175,H193,H209,H225,H241)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="10">
+        <v>528148</v>
+      </c>
+      <c r="B190" s="9">
+        <v>528148</v>
+      </c>
+      <c r="C190" s="10">
+        <v>185563</v>
+      </c>
+      <c r="D190" s="10">
+        <v>185563</v>
+      </c>
+      <c r="E190" s="2">
+        <v>736379</v>
+      </c>
+      <c r="F190" s="2">
+        <v>736679</v>
+      </c>
+      <c r="G190" s="10">
+        <v>778781</v>
+      </c>
+      <c r="H190" s="9">
+        <v>778781</v>
+      </c>
+      <c r="J190" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="K190" s="28">
+        <f>K189/J189</f>
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="L190" s="29"/>
+      <c r="M190" s="35">
+        <f>M189/J189</f>
+        <v>0.12857142857142856</v>
+      </c>
+      <c r="N190" s="29"/>
+      <c r="O190" s="30">
+        <f>O189/J189</f>
+        <v>0.48571428571428571</v>
+      </c>
+      <c r="P190" s="31"/>
+      <c r="Q190" s="32">
+        <f>Q189/J189</f>
+        <v>0.55714285714285716</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A191" s="10">
+        <v>823552</v>
+      </c>
+      <c r="B191" s="9">
+        <v>823552</v>
+      </c>
+      <c r="C191" s="10">
+        <v>483174</v>
+      </c>
+      <c r="D191" s="10">
+        <v>483174</v>
+      </c>
+      <c r="E191" s="2">
+        <v>323513</v>
+      </c>
+      <c r="F191" s="2">
+        <v>325513</v>
+      </c>
+      <c r="G191" s="10">
+        <v>551944</v>
+      </c>
+      <c r="H191" s="9">
+        <v>551944</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="16">
+        <v>284533</v>
+      </c>
+      <c r="B192" s="15">
+        <v>284533</v>
+      </c>
+      <c r="C192" s="16">
+        <v>306408</v>
+      </c>
+      <c r="D192" s="16">
+        <v>306408</v>
+      </c>
+      <c r="E192" s="16">
+        <v>214612</v>
+      </c>
+      <c r="F192" s="17">
+        <v>214612</v>
+      </c>
+      <c r="G192" s="3">
+        <v>289285</v>
+      </c>
+      <c r="H192" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B193" s="13">
+        <v>0</v>
+      </c>
+      <c r="C193" s="14"/>
+      <c r="D193" s="13">
+        <v>1</v>
+      </c>
+      <c r="E193" s="14"/>
+      <c r="F193" s="13">
+        <v>2</v>
+      </c>
+      <c r="G193" s="14"/>
+      <c r="H193" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="23"/>
+      <c r="B194" s="23"/>
+      <c r="C194" s="23"/>
+      <c r="D194" s="23"/>
+      <c r="E194" s="23"/>
+      <c r="F194" s="23"/>
+      <c r="G194" s="23"/>
+      <c r="H194" s="23"/>
+    </row>
+    <row r="195" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B195" s="20"/>
+      <c r="C195" s="20"/>
+      <c r="D195" s="20"/>
+      <c r="E195" s="20"/>
+      <c r="F195" s="20"/>
+      <c r="G195" s="20"/>
+      <c r="H195" s="21"/>
+    </row>
+    <row r="196" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B196" s="20"/>
+      <c r="C196" s="20"/>
+      <c r="D196" s="20"/>
+      <c r="E196" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F196" s="14"/>
+      <c r="G196" s="14"/>
+      <c r="H196" s="12"/>
+    </row>
+    <row r="197" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B197" s="21"/>
+      <c r="C197" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D197" s="21"/>
+      <c r="E197" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F197" s="11"/>
+      <c r="G197" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H197" s="9"/>
+    </row>
+    <row r="198" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" s="12"/>
+      <c r="C198" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C178" s="25"/>
-      <c r="D178" s="26">
-        <f>SUM(D175,D159,D143)</f>
+      <c r="D198" s="13"/>
+      <c r="E198" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F198" s="13"/>
+      <c r="G198" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H198" s="13"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="10">
+        <v>844618</v>
+      </c>
+      <c r="B199" s="9">
+        <v>844618</v>
+      </c>
+      <c r="C199" s="2">
+        <v>208397</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E199" s="10">
+        <v>976820</v>
+      </c>
+      <c r="F199" s="10">
+        <v>976820</v>
+      </c>
+      <c r="G199" s="6">
+        <v>314962</v>
+      </c>
+      <c r="H199" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="10">
+        <v>726387</v>
+      </c>
+      <c r="B200" s="9">
+        <v>726387</v>
+      </c>
+      <c r="C200" s="2">
+        <v>509384</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E200" s="10">
+        <v>735740</v>
+      </c>
+      <c r="F200" s="10">
+        <v>735740</v>
+      </c>
+      <c r="G200" s="2">
+        <v>183887</v>
+      </c>
+      <c r="H200" s="7">
+        <v>183867</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="10">
+        <v>543830</v>
+      </c>
+      <c r="B201" s="9">
+        <v>543830</v>
+      </c>
+      <c r="C201" s="10">
+        <v>973722</v>
+      </c>
+      <c r="D201" s="10">
+        <v>973722</v>
+      </c>
+      <c r="E201" s="10">
+        <v>243852</v>
+      </c>
+      <c r="F201" s="10">
+        <v>243852</v>
+      </c>
+      <c r="G201" s="2">
+        <v>634535</v>
+      </c>
+      <c r="H201" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="10">
+        <v>575573</v>
+      </c>
+      <c r="B202" s="9">
+        <v>575573</v>
+      </c>
+      <c r="C202" s="2">
+        <v>799320</v>
+      </c>
+      <c r="D202" s="2">
+        <v>799330</v>
+      </c>
+      <c r="E202" s="2">
+        <v>136158</v>
+      </c>
+      <c r="F202" s="2">
+        <v>136150</v>
+      </c>
+      <c r="G202" s="10">
+        <v>194595</v>
+      </c>
+      <c r="H202" s="9">
+        <v>194595</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="10">
+        <v>107815</v>
+      </c>
+      <c r="B203" s="9">
+        <v>107815</v>
+      </c>
+      <c r="C203" s="10">
+        <v>568930</v>
+      </c>
+      <c r="D203" s="10">
+        <v>568930</v>
+      </c>
+      <c r="E203" s="10">
+        <v>377792</v>
+      </c>
+      <c r="F203" s="10">
+        <v>377792</v>
+      </c>
+      <c r="G203" s="10">
+        <v>814557</v>
+      </c>
+      <c r="H203" s="9">
+        <v>814557</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>942685</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C204" s="10">
+        <v>307267</v>
+      </c>
+      <c r="D204" s="10">
+        <v>307267</v>
+      </c>
+      <c r="E204" s="2">
+        <v>549793</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G204" s="2">
+        <v>622538</v>
+      </c>
+      <c r="H204" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="10">
+        <v>861330</v>
+      </c>
+      <c r="B205" s="9">
+        <v>861330</v>
+      </c>
+      <c r="C205" s="33">
+        <v>271999</v>
+      </c>
+      <c r="D205" s="33">
+        <v>271999</v>
+      </c>
+      <c r="E205" s="10">
+        <v>525481</v>
+      </c>
+      <c r="F205" s="10">
+        <v>525481</v>
+      </c>
+      <c r="G205" s="10">
+        <v>714876</v>
+      </c>
+      <c r="H205" s="9">
+        <v>714876</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="10">
+        <v>528148</v>
+      </c>
+      <c r="B206" s="9">
+        <v>528148</v>
+      </c>
+      <c r="C206" s="10">
+        <v>185563</v>
+      </c>
+      <c r="D206" s="10">
+        <v>185563</v>
+      </c>
+      <c r="E206" s="10">
+        <v>736379</v>
+      </c>
+      <c r="F206" s="10">
+        <v>736379</v>
+      </c>
+      <c r="G206" s="10">
+        <v>778781</v>
+      </c>
+      <c r="H206" s="9">
+        <v>778781</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="10">
+        <v>823552</v>
+      </c>
+      <c r="B207" s="9">
+        <v>823552</v>
+      </c>
+      <c r="C207" s="10">
+        <v>483174</v>
+      </c>
+      <c r="D207" s="10">
+        <v>483174</v>
+      </c>
+      <c r="E207" s="10">
+        <v>323513</v>
+      </c>
+      <c r="F207" s="10">
+        <v>323513</v>
+      </c>
+      <c r="G207" s="10">
+        <v>551944</v>
+      </c>
+      <c r="H207" s="9">
+        <v>551944</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="16">
+        <v>284533</v>
+      </c>
+      <c r="B208" s="15">
+        <v>284533</v>
+      </c>
+      <c r="C208" s="16">
+        <v>306408</v>
+      </c>
+      <c r="D208" s="16">
+        <v>306408</v>
+      </c>
+      <c r="E208" s="16">
+        <v>214612</v>
+      </c>
+      <c r="F208" s="17">
+        <v>214612</v>
+      </c>
+      <c r="G208" s="3">
+        <v>289285</v>
+      </c>
+      <c r="H208" s="8">
+        <v>289256</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B209" s="13">
+        <v>1</v>
+      </c>
+      <c r="C209" s="14"/>
+      <c r="D209" s="13">
+        <v>3</v>
+      </c>
+      <c r="E209" s="14"/>
+      <c r="F209" s="13">
+        <v>2</v>
+      </c>
+      <c r="G209" s="14"/>
+      <c r="H209" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="211" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B211" s="20"/>
+      <c r="C211" s="20"/>
+      <c r="D211" s="20"/>
+      <c r="E211" s="20"/>
+      <c r="F211" s="20"/>
+      <c r="G211" s="20"/>
+      <c r="H211" s="21"/>
+    </row>
+    <row r="212" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B212" s="20"/>
+      <c r="C212" s="20"/>
+      <c r="D212" s="20"/>
+      <c r="E212" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F212" s="14"/>
+      <c r="G212" s="14"/>
+      <c r="H212" s="12"/>
+    </row>
+    <row r="213" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B213" s="21"/>
+      <c r="C213" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E178" s="25"/>
-      <c r="F178" s="26">
-        <f>SUM(F175,F159,F143)</f>
-        <v>21</v>
-      </c>
-      <c r="G178" s="23"/>
-      <c r="H178" s="24">
-        <f>SUM(H175,H159,H143)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B179" s="29">
-        <v>0.23330000000000001</v>
-      </c>
-      <c r="C179" s="30"/>
-      <c r="D179" s="31">
-        <v>13.33</v>
-      </c>
-      <c r="E179" s="30"/>
-      <c r="F179" s="32">
-        <v>0.7</v>
-      </c>
-      <c r="G179" s="33"/>
-      <c r="H179" s="34">
-        <v>0.8</v>
+      <c r="D213" s="21"/>
+      <c r="E213" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F213" s="11"/>
+      <c r="G213" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H213" s="9"/>
+    </row>
+    <row r="214" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B214" s="12"/>
+      <c r="C214" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D214" s="13"/>
+      <c r="E214" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F214" s="13"/>
+      <c r="G214" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H214" s="13"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
+        <v>844618</v>
+      </c>
+      <c r="B215" s="7">
+        <v>844641</v>
+      </c>
+      <c r="C215" s="10">
+        <v>208397</v>
+      </c>
+      <c r="D215" s="10">
+        <v>208397</v>
+      </c>
+      <c r="E215" s="2">
+        <v>976820</v>
+      </c>
+      <c r="F215" s="2">
+        <v>976620</v>
+      </c>
+      <c r="G215" s="6">
+        <v>314962</v>
+      </c>
+      <c r="H215" s="7">
+        <v>314952</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="10">
+        <v>726387</v>
+      </c>
+      <c r="B216" s="9">
+        <v>726387</v>
+      </c>
+      <c r="C216" s="10">
+        <v>509384</v>
+      </c>
+      <c r="D216" s="10">
+        <v>509384</v>
+      </c>
+      <c r="E216" s="10">
+        <v>735740</v>
+      </c>
+      <c r="F216" s="10">
+        <v>735470</v>
+      </c>
+      <c r="G216" s="2">
+        <v>183887</v>
+      </c>
+      <c r="H216" s="7">
+        <v>183837</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="10">
+        <v>543830</v>
+      </c>
+      <c r="B217" s="9">
+        <v>543830</v>
+      </c>
+      <c r="C217" s="10">
+        <v>973722</v>
+      </c>
+      <c r="D217" s="10">
+        <v>973722</v>
+      </c>
+      <c r="E217" s="10">
+        <v>243852</v>
+      </c>
+      <c r="F217" s="10">
+        <v>243852</v>
+      </c>
+      <c r="G217" s="2">
+        <v>634535</v>
+      </c>
+      <c r="H217" s="7">
+        <v>634523</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="10">
+        <v>575573</v>
+      </c>
+      <c r="B218" s="9">
+        <v>575573</v>
+      </c>
+      <c r="C218" s="10">
+        <v>799320</v>
+      </c>
+      <c r="D218" s="10">
+        <v>799320</v>
+      </c>
+      <c r="E218" s="10">
+        <v>136158</v>
+      </c>
+      <c r="F218" s="10">
+        <v>136158</v>
+      </c>
+      <c r="G218" s="10">
+        <v>194595</v>
+      </c>
+      <c r="H218" s="9">
+        <v>194595</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="10">
+        <v>107815</v>
+      </c>
+      <c r="B219" s="9">
+        <v>107815</v>
+      </c>
+      <c r="C219" s="10">
+        <v>568930</v>
+      </c>
+      <c r="D219" s="10">
+        <v>568930</v>
+      </c>
+      <c r="E219" s="10">
+        <v>377792</v>
+      </c>
+      <c r="F219" s="10">
+        <v>377792</v>
+      </c>
+      <c r="G219" s="10">
+        <v>814557</v>
+      </c>
+      <c r="H219" s="9">
+        <v>814557</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="10">
+        <v>942685</v>
+      </c>
+      <c r="B220" s="9">
+        <v>942685</v>
+      </c>
+      <c r="C220" s="10">
+        <v>307267</v>
+      </c>
+      <c r="D220" s="10">
+        <v>307267</v>
+      </c>
+      <c r="E220" s="10">
+        <v>549793</v>
+      </c>
+      <c r="F220" s="10">
+        <v>549793</v>
+      </c>
+      <c r="G220" s="10">
+        <v>622538</v>
+      </c>
+      <c r="H220" s="9">
+        <v>622538</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="10">
+        <v>861330</v>
+      </c>
+      <c r="B221" s="9">
+        <v>861330</v>
+      </c>
+      <c r="C221" s="33">
+        <v>271999</v>
+      </c>
+      <c r="D221" s="33">
+        <v>271999</v>
+      </c>
+      <c r="E221" s="10">
+        <v>525481</v>
+      </c>
+      <c r="F221" s="10">
+        <v>525481</v>
+      </c>
+      <c r="G221" s="10">
+        <v>714876</v>
+      </c>
+      <c r="H221" s="9">
+        <v>714876</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="10">
+        <v>528148</v>
+      </c>
+      <c r="B222" s="9">
+        <v>528148</v>
+      </c>
+      <c r="C222" s="10">
+        <v>185563</v>
+      </c>
+      <c r="D222" s="10">
+        <v>185563</v>
+      </c>
+      <c r="E222" s="10">
+        <v>736379</v>
+      </c>
+      <c r="F222" s="10">
+        <v>736379</v>
+      </c>
+      <c r="G222" s="10">
+        <v>778781</v>
+      </c>
+      <c r="H222" s="9">
+        <v>778781</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="10">
+        <v>823552</v>
+      </c>
+      <c r="B223" s="9">
+        <v>823552</v>
+      </c>
+      <c r="C223" s="10">
+        <v>483174</v>
+      </c>
+      <c r="D223" s="10">
+        <v>483174</v>
+      </c>
+      <c r="E223" s="10">
+        <v>323513</v>
+      </c>
+      <c r="F223" s="10">
+        <v>323513</v>
+      </c>
+      <c r="G223" s="10">
+        <v>551944</v>
+      </c>
+      <c r="H223" s="9">
+        <v>551944</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="16">
+        <v>284533</v>
+      </c>
+      <c r="B224" s="15">
+        <v>284533</v>
+      </c>
+      <c r="C224" s="16">
+        <v>306408</v>
+      </c>
+      <c r="D224" s="16">
+        <v>306408</v>
+      </c>
+      <c r="E224" s="16">
+        <v>214612</v>
+      </c>
+      <c r="F224" s="17">
+        <v>214612</v>
+      </c>
+      <c r="G224" s="16">
+        <v>289285</v>
+      </c>
+      <c r="H224" s="15">
+        <v>289285</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B225" s="13">
+        <v>1</v>
+      </c>
+      <c r="C225" s="14"/>
+      <c r="D225" s="13">
+        <v>0</v>
+      </c>
+      <c r="E225" s="14"/>
+      <c r="F225" s="13">
+        <v>1</v>
+      </c>
+      <c r="G225" s="14"/>
+      <c r="H225" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="23"/>
+      <c r="B226" s="23"/>
+      <c r="C226" s="23"/>
+      <c r="D226" s="23"/>
+      <c r="E226" s="23"/>
+      <c r="F226" s="23"/>
+      <c r="G226" s="23"/>
+      <c r="H226" s="23"/>
+    </row>
+    <row r="227" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B227" s="20"/>
+      <c r="C227" s="20"/>
+      <c r="D227" s="20"/>
+      <c r="E227" s="20"/>
+      <c r="F227" s="20"/>
+      <c r="G227" s="20"/>
+      <c r="H227" s="21"/>
+    </row>
+    <row r="228" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B228" s="20"/>
+      <c r="C228" s="20"/>
+      <c r="D228" s="20"/>
+      <c r="E228" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F228" s="14"/>
+      <c r="G228" s="14"/>
+      <c r="H228" s="12"/>
+    </row>
+    <row r="229" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B229" s="21"/>
+      <c r="C229" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D229" s="21"/>
+      <c r="E229" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F229" s="11"/>
+      <c r="G229" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H229" s="9"/>
+    </row>
+    <row r="230" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B230" s="12"/>
+      <c r="C230" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D230" s="13"/>
+      <c r="E230" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F230" s="13"/>
+      <c r="G230" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H230" s="13"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="10">
+        <v>844618</v>
+      </c>
+      <c r="B231" s="9">
+        <v>844618</v>
+      </c>
+      <c r="C231" s="10">
+        <v>208397</v>
+      </c>
+      <c r="D231" s="10">
+        <v>208397</v>
+      </c>
+      <c r="E231" s="2">
+        <v>976820</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G231" s="6">
+        <v>314962</v>
+      </c>
+      <c r="H231" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="10">
+        <v>726387</v>
+      </c>
+      <c r="B232" s="9">
+        <v>726387</v>
+      </c>
+      <c r="C232" s="10">
+        <v>509384</v>
+      </c>
+      <c r="D232" s="10">
+        <v>509384</v>
+      </c>
+      <c r="E232" s="2">
+        <v>735740</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G232" s="2">
+        <v>183887</v>
+      </c>
+      <c r="H232" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="10">
+        <v>543830</v>
+      </c>
+      <c r="B233" s="9">
+        <v>543830</v>
+      </c>
+      <c r="C233" s="10">
+        <v>973722</v>
+      </c>
+      <c r="D233" s="10">
+        <v>973722</v>
+      </c>
+      <c r="E233" s="2">
+        <v>243852</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G233" s="2">
+        <v>634535</v>
+      </c>
+      <c r="H233" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="10">
+        <v>575573</v>
+      </c>
+      <c r="B234" s="9">
+        <v>575573</v>
+      </c>
+      <c r="C234" s="10">
+        <v>799320</v>
+      </c>
+      <c r="D234" s="10">
+        <v>799320</v>
+      </c>
+      <c r="E234" s="2">
+        <v>136158</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G234" s="2">
+        <v>194595</v>
+      </c>
+      <c r="H234" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="10">
+        <v>107815</v>
+      </c>
+      <c r="B235" s="9">
+        <v>107815</v>
+      </c>
+      <c r="C235" s="10">
+        <v>568930</v>
+      </c>
+      <c r="D235" s="10">
+        <v>568930</v>
+      </c>
+      <c r="E235" s="10">
+        <v>377792</v>
+      </c>
+      <c r="F235" s="10">
+        <v>377792</v>
+      </c>
+      <c r="G235" s="10">
+        <v>814557</v>
+      </c>
+      <c r="H235" s="9">
+        <v>814557</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="2">
+        <v>942685</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C236" s="10">
+        <v>307267</v>
+      </c>
+      <c r="D236" s="10">
+        <v>307267</v>
+      </c>
+      <c r="E236" s="2">
+        <v>549793</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G236" s="10">
+        <v>622538</v>
+      </c>
+      <c r="H236" s="9">
+        <v>622538</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="10">
+        <v>861330</v>
+      </c>
+      <c r="B237" s="9">
+        <v>861330</v>
+      </c>
+      <c r="C237" s="33">
+        <v>271999</v>
+      </c>
+      <c r="D237" s="33">
+        <v>271999</v>
+      </c>
+      <c r="E237" s="10">
+        <v>525481</v>
+      </c>
+      <c r="F237" s="10">
+        <v>525481</v>
+      </c>
+      <c r="G237" s="2">
+        <v>714876</v>
+      </c>
+      <c r="H237" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="2">
+        <v>528148</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C238" s="2">
+        <v>185563</v>
+      </c>
+      <c r="D238" s="2">
+        <v>185263</v>
+      </c>
+      <c r="E238" s="2">
+        <v>736379</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G238" s="10">
+        <v>778781</v>
+      </c>
+      <c r="H238" s="9">
+        <v>778781</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="2">
+        <v>823552</v>
+      </c>
+      <c r="B239" s="7">
+        <v>823532</v>
+      </c>
+      <c r="C239" s="10">
+        <v>483174</v>
+      </c>
+      <c r="D239" s="10">
+        <v>483174</v>
+      </c>
+      <c r="E239" s="2">
+        <v>323513</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G239" s="10">
+        <v>551944</v>
+      </c>
+      <c r="H239" s="9">
+        <v>551944</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="16">
+        <v>284533</v>
+      </c>
+      <c r="B240" s="15">
+        <v>284533</v>
+      </c>
+      <c r="C240" s="16">
+        <v>306408</v>
+      </c>
+      <c r="D240" s="16">
+        <v>306408</v>
+      </c>
+      <c r="E240" s="3">
+        <v>214612</v>
+      </c>
+      <c r="F240" s="5">
+        <v>214641</v>
+      </c>
+      <c r="G240" s="3">
+        <v>289285</v>
+      </c>
+      <c r="H240" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B241" s="13">
+        <v>3</v>
+      </c>
+      <c r="C241" s="14"/>
+      <c r="D241" s="13">
+        <v>1</v>
+      </c>
+      <c r="E241" s="14"/>
+      <c r="F241" s="13">
+        <v>8</v>
+      </c>
+      <c r="G241" s="14"/>
+      <c r="H241" s="13">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/HW-SW-VGL-2.xlsx
+++ b/HW-SW-VGL-2.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="127">
   <si>
     <t>Nutzer 1</t>
   </si>
@@ -361,13 +364,54 @@
   </si>
   <si>
     <t>714xxx</t>
+  </si>
+  <si>
+    <t>T-Test 1S</t>
+  </si>
+  <si>
+    <t>T-Test 0.5s</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Q1-Minimum</t>
+  </si>
+  <si>
+    <t>Median-Q1</t>
+  </si>
+  <si>
+    <t>Q3-Median</t>
+  </si>
+  <si>
+    <t>Maximum-Q3</t>
+  </si>
+  <si>
+    <t>1 Sek</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0\ _€_-;\-* #,##0.0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,6 +421,93 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -396,7 +527,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -681,11 +812,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -722,8 +905,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -734,6 +977,598 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fehlerrate</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$L$248:$M$248</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$249:$M$249</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$250:$M$250</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$L$252:$M$252</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>3.375</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$251:$M$251</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="129425792"/>
+        <c:axId val="129427328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="129425792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="129427328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="129427328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="129425792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.81863976377952763"/>
+          <c:y val="0.43499307378244384"/>
+          <c:w val="0.16469356955380576"/>
+          <c:h val="0.17168015456401284"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$L$276:$M$276</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$277:$M$277</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$278:$M$278</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$L$280:$M$280</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$279:$M$279</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="57612544"/>
+        <c:axId val="57628544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="57612544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57628544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="57628544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57612544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>146446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>8333</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>500061</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>170260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>214311</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>55960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Boxplot"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>März</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>April</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>22.131805555633036</v>
+          </cell>
+          <cell r="D9">
+            <v>8.2823611110798083</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>45.131805555633036</v>
+          </cell>
+          <cell r="D10">
+            <v>26.697083333332557</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>5.3854166665405501</v>
+          </cell>
+          <cell r="D11">
+            <v>15.319305555545725</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>13.180833333462942</v>
+          </cell>
+          <cell r="D12">
+            <v>8.4415277778462041</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>31.037777777644806</v>
+          </cell>
+          <cell r="D13">
+            <v>41.664861111174105</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1023,18 +1858,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q241"/>
+  <dimension ref="A1:Z323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="Q190" sqref="Q190"/>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R237" sqref="R237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +1886,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
@@ -1063,7 +1900,7 @@
       <c r="G2" s="14"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
@@ -1081,7 +1918,7 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
@@ -1107,7 +1944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>844618</v>
       </c>
@@ -1133,7 +1970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>726387</v>
       </c>
@@ -1159,7 +1996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>543830</v>
       </c>
@@ -1185,7 +2022,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>575573</v>
       </c>
@@ -1211,7 +2048,7 @@
         <v>194565</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>107815</v>
       </c>
@@ -1237,7 +2074,7 @@
         <v>814557</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>942685</v>
       </c>
@@ -1263,7 +2100,7 @@
         <v>622538</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>861330</v>
       </c>
@@ -1288,8 +2125,10 @@
       <c r="H11" s="9">
         <v>714876</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>528148</v>
       </c>
@@ -1314,8 +2153,13 @@
       <c r="H12" s="9">
         <v>778781</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>823552</v>
       </c>
@@ -1340,8 +2184,18 @@
       <c r="H13" s="9">
         <v>551944</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="N13" s="36"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>284533</v>
       </c>
@@ -1366,8 +2220,22 @@
       <c r="H14" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>8</v>
       </c>
@@ -1386,9 +2254,39 @@
       <c r="H15" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="36">
+        <v>4</v>
+      </c>
+      <c r="L15" s="36">
+        <v>3</v>
+      </c>
+      <c r="M15" s="36">
+        <v>7</v>
+      </c>
+      <c r="N15" s="36">
+        <v>5</v>
+      </c>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="36">
+        <v>7</v>
+      </c>
+      <c r="L16" s="36">
+        <v>4</v>
+      </c>
+      <c r="M16" s="36">
+        <v>10</v>
+      </c>
+      <c r="N16" s="36">
+        <v>9</v>
+      </c>
+      <c r="O16" s="11"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>18</v>
       </c>
@@ -1399,8 +2297,22 @@
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K17" s="36">
+        <f>TTEST(K15:K16,L15:L16,1,1)</f>
+        <v>0.14758361765043326</v>
+      </c>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36">
+        <f>TTEST(M15:M16,N15:N16,1,1)</f>
+        <v>0.10241638234956675</v>
+      </c>
+      <c r="N17" s="36"/>
+      <c r="P17" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="36"/>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>1</v>
       </c>
@@ -1413,8 +2325,14 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P18" s="37">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>3</v>
       </c>
@@ -1431,8 +2349,14 @@
         <v>4</v>
       </c>
       <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P19" s="36">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>5</v>
       </c>
@@ -1457,8 +2381,14 @@
       <c r="H20" s="13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P20" s="36">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>844618</v>
       </c>
@@ -1483,8 +2413,14 @@
       <c r="H21" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P21" s="36">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>726387</v>
       </c>
@@ -1509,8 +2445,12 @@
       <c r="H22" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <f>TTEST(P18:P21,Q18:Q21,1,1)</f>
+        <v>1.7676423501258691E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>543830</v>
       </c>
@@ -1536,7 +2476,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>575573</v>
       </c>
@@ -1562,7 +2502,7 @@
         <v>194354</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>107815</v>
       </c>
@@ -1588,7 +2528,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>942685</v>
       </c>
@@ -1614,7 +2554,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>861330</v>
       </c>
@@ -1640,7 +2580,7 @@
         <v>714876</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>528148</v>
       </c>
@@ -1666,7 +2606,7 @@
         <v>718781</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>823552</v>
       </c>
@@ -1692,7 +2632,7 @@
         <v>551954</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>284533</v>
       </c>
@@ -1718,7 +2658,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>8</v>
       </c>
@@ -1738,8 +2678,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>36</v>
       </c>
@@ -1754,7 +2694,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
         <v>1</v>
       </c>
@@ -1768,7 +2708,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>3</v>
       </c>
@@ -1786,7 +2726,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>5</v>
       </c>
@@ -1812,7 +2752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>844618</v>
       </c>
@@ -1838,7 +2778,7 @@
         <v>314962</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>726387</v>
       </c>
@@ -1864,7 +2804,7 @@
         <v>103867</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>543830</v>
       </c>
@@ -1890,7 +2830,7 @@
         <v>634575</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>575573</v>
       </c>
@@ -1916,7 +2856,7 @@
         <v>194569</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>107815</v>
       </c>
@@ -1942,7 +2882,7 @@
         <v>814557</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>942685</v>
       </c>
@@ -1968,7 +2908,7 @@
         <v>622539</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>861330</v>
       </c>
@@ -1994,7 +2934,7 @@
         <v>714876</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>528148</v>
       </c>
@@ -2019,8 +2959,11 @@
       <c r="H44" s="9">
         <v>778781</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>823552</v>
       </c>
@@ -2045,8 +2988,16 @@
       <c r="H45" s="9">
         <v>551944</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K45" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="N45" s="36"/>
+    </row>
+    <row r="46" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>284533</v>
       </c>
@@ -2071,8 +3022,24 @@
       <c r="H46" s="15">
         <v>289285</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K46" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="36"/>
+    </row>
+    <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18" t="s">
         <v>8</v>
       </c>
@@ -2091,9 +3058,46 @@
       <c r="H47" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K47" s="36">
+        <v>2</v>
+      </c>
+      <c r="L47" s="36">
+        <v>1</v>
+      </c>
+      <c r="M47" s="36">
+        <v>3</v>
+      </c>
+      <c r="N47" s="36">
+        <v>5</v>
+      </c>
+      <c r="P47" s="37">
+        <v>2</v>
+      </c>
+      <c r="Q47" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K48" s="36">
+        <v>2</v>
+      </c>
+      <c r="L48" s="36">
+        <v>4</v>
+      </c>
+      <c r="M48" s="36">
+        <v>8</v>
+      </c>
+      <c r="N48" s="36">
+        <v>10</v>
+      </c>
+      <c r="P48" s="36">
+        <v>2</v>
+      </c>
+      <c r="Q48" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
         <v>37</v>
       </c>
@@ -2104,8 +3108,24 @@
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
       <c r="H49" s="21"/>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K49" s="36">
+        <f>TTEST(K47:K48,L47:L48,1,1)</f>
+        <v>0.39758361765043321</v>
+      </c>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36" t="e">
+        <f>TTEST(M47:M48,N47:N48,1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N49" s="36"/>
+      <c r="P49" s="36">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="19" t="s">
         <v>1</v>
       </c>
@@ -2118,8 +3138,14 @@
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
       <c r="H50" s="12"/>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P50" s="36">
+        <v>8</v>
+      </c>
+      <c r="Q50" s="36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="19" t="s">
         <v>3</v>
       </c>
@@ -2136,8 +3162,12 @@
         <v>4</v>
       </c>
       <c r="H51" s="9"/>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P51">
+        <f>TTEST(P47:P50,Q47:Q50,1,1)</f>
+        <v>9.7085672806029269E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
         <v>5</v>
       </c>
@@ -2163,7 +3193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>844618</v>
       </c>
@@ -2189,7 +3219,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>726387</v>
       </c>
@@ -2215,7 +3245,7 @@
         <v>183867</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>543830</v>
       </c>
@@ -2241,7 +3271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>575573</v>
       </c>
@@ -2267,7 +3297,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>107815</v>
       </c>
@@ -2293,7 +3323,7 @@
         <v>814547</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>942685</v>
       </c>
@@ -2319,7 +3349,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>861330</v>
       </c>
@@ -2345,7 +3375,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>528148</v>
       </c>
@@ -2371,7 +3401,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>823552</v>
       </c>
@@ -2397,7 +3427,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>284533</v>
       </c>
@@ -2423,7 +3453,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="18" t="s">
         <v>8</v>
       </c>
@@ -2443,7 +3473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="19" t="s">
         <v>37</v>
@@ -3149,7 +4179,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="19" t="s">
         <v>61</v>
       </c>
@@ -3161,7 +4191,7 @@
       <c r="G97" s="20"/>
       <c r="H97" s="21"/>
     </row>
-    <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="19" t="s">
         <v>1</v>
       </c>
@@ -3175,7 +4205,7 @@
       <c r="G98" s="14"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="19" t="s">
         <v>3</v>
       </c>
@@ -3193,7 +4223,7 @@
       </c>
       <c r="H99" s="9"/>
     </row>
-    <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="13" t="s">
         <v>5</v>
       </c>
@@ -3219,7 +4249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>844618</v>
       </c>
@@ -3245,7 +4275,7 @@
         <v>314952</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>726387</v>
       </c>
@@ -3271,7 +4301,7 @@
         <v>183807</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="10">
         <v>543830</v>
       </c>
@@ -3297,7 +4327,7 @@
         <v>634557</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="10">
         <v>575573</v>
       </c>
@@ -3323,7 +4353,7 @@
         <v>194595</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="10">
         <v>107815</v>
       </c>
@@ -3349,7 +4379,7 @@
         <v>114557</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="10">
         <v>942685</v>
       </c>
@@ -3375,7 +4405,7 @@
         <v>622539</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="10">
         <v>861330</v>
       </c>
@@ -3401,7 +4431,7 @@
         <v>714876</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="10">
         <v>528148</v>
       </c>
@@ -3427,7 +4457,7 @@
         <v>778781</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="10">
         <v>823552</v>
       </c>
@@ -3453,7 +4483,7 @@
         <v>551914</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="16">
         <v>284533</v>
       </c>
@@ -3479,7 +4509,7 @@
         <v>289256</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="18" t="s">
         <v>8</v>
       </c>
@@ -3499,8 +4529,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="113" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P112" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q112" s="36"/>
+    </row>
+    <row r="113" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="19" t="s">
         <v>63</v>
       </c>
@@ -3511,8 +4546,14 @@
       <c r="F113" s="20"/>
       <c r="G113" s="20"/>
       <c r="H113" s="21"/>
-    </row>
-    <row r="114" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P113" s="36">
+        <v>3</v>
+      </c>
+      <c r="Q113" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="19" t="s">
         <v>1</v>
       </c>
@@ -3525,8 +4566,14 @@
       <c r="F114" s="14"/>
       <c r="G114" s="14"/>
       <c r="H114" s="12"/>
-    </row>
-    <row r="115" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P114" s="36">
+        <v>3</v>
+      </c>
+      <c r="Q114" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="19" t="s">
         <v>3</v>
       </c>
@@ -3543,8 +4590,17 @@
         <v>4</v>
       </c>
       <c r="H115" s="9"/>
-    </row>
-    <row r="116" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K115" t="s">
+        <v>53</v>
+      </c>
+      <c r="P115" s="36">
+        <v>2</v>
+      </c>
+      <c r="Q115" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="13" t="s">
         <v>5</v>
       </c>
@@ -3569,8 +4625,22 @@
       <c r="H116" s="13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K116" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="L116" s="36"/>
+      <c r="M116" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="N116" s="36"/>
+      <c r="P116" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="10">
         <v>844618</v>
       </c>
@@ -3595,8 +4665,26 @@
       <c r="H117" s="7">
         <v>314952</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K117" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L117" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="M117" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="N117" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="P117" s="36">
+        <v>7</v>
+      </c>
+      <c r="Q117" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="10">
         <v>726387</v>
       </c>
@@ -3621,8 +4709,26 @@
       <c r="H118" s="7">
         <v>183837</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K118" s="36">
+        <v>3</v>
+      </c>
+      <c r="L118" s="36">
+        <v>0</v>
+      </c>
+      <c r="M118" s="36">
+        <v>7</v>
+      </c>
+      <c r="N118" s="36">
+        <v>6</v>
+      </c>
+      <c r="P118" s="36">
+        <v>8</v>
+      </c>
+      <c r="Q118" s="36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="10">
         <v>543830</v>
       </c>
@@ -3647,8 +4753,26 @@
       <c r="H119" s="7">
         <v>634355</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K119" s="36">
+        <v>3</v>
+      </c>
+      <c r="L119" s="36">
+        <v>2</v>
+      </c>
+      <c r="M119" s="36">
+        <v>8</v>
+      </c>
+      <c r="N119" s="36">
+        <v>7</v>
+      </c>
+      <c r="P119" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q119" s="36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="10">
         <v>575573</v>
       </c>
@@ -3673,8 +4797,26 @@
       <c r="H120" s="7">
         <v>149595</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K120" s="36">
+        <v>2</v>
+      </c>
+      <c r="L120" s="36">
+        <v>1</v>
+      </c>
+      <c r="M120" s="36">
+        <v>1</v>
+      </c>
+      <c r="N120" s="36">
+        <v>7</v>
+      </c>
+      <c r="P120" s="36">
+        <v>4</v>
+      </c>
+      <c r="Q120" s="36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="10">
         <v>107815</v>
       </c>
@@ -3699,8 +4841,24 @@
       <c r="H121" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K121" s="36">
+        <v>0</v>
+      </c>
+      <c r="L121" s="36">
+        <v>2</v>
+      </c>
+      <c r="M121" s="36">
+        <v>4</v>
+      </c>
+      <c r="N121" s="36">
+        <v>7</v>
+      </c>
+      <c r="P121">
+        <f>TTEST(P113:P120,Q113:Q120,1,1)</f>
+        <v>0.32190229009606419</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="10">
         <v>942685</v>
       </c>
@@ -3725,8 +4883,18 @@
       <c r="H122" s="7">
         <v>622528</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K122" s="36">
+        <f>TTEST(K118:K121,L118:L121,1,1)</f>
+        <v>0.25974898093272442</v>
+      </c>
+      <c r="L122" s="36"/>
+      <c r="M122" s="36">
+        <f>TTEST(M118:M121,N118:N121,1,1)</f>
+        <v>0.18971757003754278</v>
+      </c>
+      <c r="N122" s="36"/>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="10">
         <v>861330</v>
       </c>
@@ -3752,7 +4920,7 @@
         <v>714876</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="10">
         <v>528148</v>
       </c>
@@ -3778,7 +4946,7 @@
         <v>778781</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="10">
         <v>823552</v>
       </c>
@@ -3804,7 +4972,7 @@
         <v>551944</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="16">
         <v>284533</v>
       </c>
@@ -3830,7 +4998,7 @@
         <v>289266</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="18" t="s">
         <v>8</v>
       </c>
@@ -3850,7 +5018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="129" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="19" t="s">
         <v>64</v>
@@ -5636,7 +6804,7 @@
         <v>289256</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="18" t="s">
         <v>8</v>
       </c>
@@ -5656,8 +6824,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="211" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="211" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="19" t="s">
         <v>110</v>
       </c>
@@ -5669,7 +6837,7 @@
       <c r="G211" s="20"/>
       <c r="H211" s="21"/>
     </row>
-    <row r="212" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="19" t="s">
         <v>1</v>
       </c>
@@ -5683,7 +6851,7 @@
       <c r="G212" s="14"/>
       <c r="H212" s="12"/>
     </row>
-    <row r="213" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="19" t="s">
         <v>3</v>
       </c>
@@ -5701,7 +6869,7 @@
       </c>
       <c r="H213" s="9"/>
     </row>
-    <row r="214" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="13" t="s">
         <v>5</v>
       </c>
@@ -5719,7 +6887,7 @@
       </c>
       <c r="H214" s="13"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>844618</v>
       </c>
@@ -5745,7 +6913,7 @@
         <v>314952</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="10">
         <v>726387</v>
       </c>
@@ -5771,7 +6939,7 @@
         <v>183837</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="10">
         <v>543830</v>
       </c>
@@ -5797,7 +6965,7 @@
         <v>634523</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" s="10">
         <v>575573</v>
       </c>
@@ -5822,8 +6990,12 @@
       <c r="H218" s="9">
         <v>194595</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P218" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q218" s="36"/>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" s="10">
         <v>107815</v>
       </c>
@@ -5848,8 +7020,14 @@
       <c r="H219" s="9">
         <v>814557</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P219" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q219" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" s="10">
         <v>942685</v>
       </c>
@@ -5874,8 +7052,14 @@
       <c r="H220" s="9">
         <v>622538</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P220" s="36">
+        <v>6</v>
+      </c>
+      <c r="Q220" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" s="10">
         <v>861330</v>
       </c>
@@ -5900,8 +7084,14 @@
       <c r="H221" s="9">
         <v>714876</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P221" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q221" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" s="10">
         <v>528148</v>
       </c>
@@ -5926,8 +7116,14 @@
       <c r="H222" s="9">
         <v>778781</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P222" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q222" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" s="10">
         <v>823552</v>
       </c>
@@ -5952,8 +7148,14 @@
       <c r="H223" s="9">
         <v>551944</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P223" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q223" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="16">
         <v>284533</v>
       </c>
@@ -5978,8 +7180,14 @@
       <c r="H224" s="15">
         <v>289285</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P224" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q224" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="18" t="s">
         <v>8</v>
       </c>
@@ -5998,8 +7206,14 @@
       <c r="H225" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P225" s="36">
+        <v>3</v>
+      </c>
+      <c r="Q225" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="23"/>
       <c r="B226" s="23"/>
       <c r="C226" s="23"/>
@@ -6008,8 +7222,17 @@
       <c r="F226" s="23"/>
       <c r="G226" s="23"/>
       <c r="H226" s="23"/>
-    </row>
-    <row r="227" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K226" t="s">
+        <v>65</v>
+      </c>
+      <c r="P226" s="36">
+        <v>3</v>
+      </c>
+      <c r="Q226" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="19" t="s">
         <v>104</v>
       </c>
@@ -6020,8 +7243,22 @@
       <c r="F227" s="20"/>
       <c r="G227" s="20"/>
       <c r="H227" s="21"/>
-    </row>
-    <row r="228" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K227" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="L227" s="36"/>
+      <c r="M227" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="N227" s="36"/>
+      <c r="P227" s="36">
+        <v>9</v>
+      </c>
+      <c r="Q227" s="36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="19" t="s">
         <v>1</v>
       </c>
@@ -6034,8 +7271,26 @@
       <c r="F228" s="14"/>
       <c r="G228" s="14"/>
       <c r="H228" s="12"/>
-    </row>
-    <row r="229" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K228" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L228" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="M228" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="N228" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="P228" s="36">
+        <v>9</v>
+      </c>
+      <c r="Q228" s="36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="19" t="s">
         <v>3</v>
       </c>
@@ -6052,8 +7307,26 @@
         <v>4</v>
       </c>
       <c r="H229" s="9"/>
-    </row>
-    <row r="230" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K229" s="36">
+        <v>1</v>
+      </c>
+      <c r="L229" s="36">
+        <v>1</v>
+      </c>
+      <c r="M229" s="36">
+        <v>3</v>
+      </c>
+      <c r="N229" s="36">
+        <v>5</v>
+      </c>
+      <c r="P229" s="36">
+        <v>2</v>
+      </c>
+      <c r="Q229" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="13" t="s">
         <v>5</v>
       </c>
@@ -6070,8 +7343,26 @@
         <v>5</v>
       </c>
       <c r="H230" s="13"/>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K230" s="36">
+        <v>6</v>
+      </c>
+      <c r="L230" s="36">
+        <v>1</v>
+      </c>
+      <c r="M230" s="36">
+        <v>9</v>
+      </c>
+      <c r="N230" s="36">
+        <v>9</v>
+      </c>
+      <c r="P230" s="36">
+        <v>2</v>
+      </c>
+      <c r="Q230" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" s="10">
         <v>844618</v>
       </c>
@@ -6096,8 +7387,26 @@
       <c r="H231" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K231" s="36">
+        <v>0</v>
+      </c>
+      <c r="L231" s="36">
+        <v>2</v>
+      </c>
+      <c r="M231" s="36">
+        <v>9</v>
+      </c>
+      <c r="N231" s="36">
+        <v>10</v>
+      </c>
+      <c r="P231" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q231" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" s="10">
         <v>726387</v>
       </c>
@@ -6122,8 +7431,26 @@
       <c r="H232" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K232" s="36">
+        <v>0</v>
+      </c>
+      <c r="L232" s="36">
+        <v>1</v>
+      </c>
+      <c r="M232" s="36">
+        <v>2</v>
+      </c>
+      <c r="N232" s="36">
+        <v>1</v>
+      </c>
+      <c r="P232" s="36">
+        <v>8</v>
+      </c>
+      <c r="Q232" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" s="10">
         <v>543830</v>
       </c>
@@ -6148,8 +7475,24 @@
       <c r="H233" s="7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K233" s="36">
+        <v>1</v>
+      </c>
+      <c r="L233" s="36">
+        <v>3</v>
+      </c>
+      <c r="M233" s="36">
+        <v>2</v>
+      </c>
+      <c r="N233" s="36">
+        <v>5</v>
+      </c>
+      <c r="P233">
+        <f>TTEST(P219:P232,Q219:Q232,1,1)</f>
+        <v>0.40501688082642917</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" s="10">
         <v>575573</v>
       </c>
@@ -6174,8 +7517,20 @@
       <c r="H234" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K234" s="36">
+        <v>1</v>
+      </c>
+      <c r="L234" s="36">
+        <v>0</v>
+      </c>
+      <c r="M234" s="36">
+        <v>1</v>
+      </c>
+      <c r="N234" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" s="10">
         <v>107815</v>
       </c>
@@ -6200,8 +7555,20 @@
       <c r="H235" s="9">
         <v>814557</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K235" s="36">
+        <v>3</v>
+      </c>
+      <c r="L235" s="36">
+        <v>1</v>
+      </c>
+      <c r="M235" s="36">
+        <v>8</v>
+      </c>
+      <c r="N235" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>942685</v>
       </c>
@@ -6226,8 +7593,18 @@
       <c r="H236" s="9">
         <v>622538</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K236" s="36">
+        <f>TTEST(K229:K235,L229:L235,1,1)</f>
+        <v>0.33348386075884995</v>
+      </c>
+      <c r="L236" s="36"/>
+      <c r="M236" s="36">
+        <f>TTEST(M229:M235,N229:N235,1,1)</f>
+        <v>0.16703467897357527</v>
+      </c>
+      <c r="N236" s="36"/>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" s="10">
         <v>861330</v>
       </c>
@@ -6253,7 +7630,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>528148</v>
       </c>
@@ -6279,7 +7656,7 @@
         <v>778781</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>823552</v>
       </c>
@@ -6305,7 +7682,7 @@
         <v>551944</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="16">
         <v>284533</v>
       </c>
@@ -6331,7 +7708,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="18" t="s">
         <v>8</v>
       </c>
@@ -6350,10 +7727,912 @@
       <c r="H241" s="13">
         <v>6</v>
       </c>
+      <c r="K241" s="36"/>
+      <c r="L241" s="39" t="str">
+        <f>L255</f>
+        <v>SW</v>
+      </c>
+      <c r="M241" s="39" t="str">
+        <f>M255</f>
+        <v>HW</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K242" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="L242" s="40">
+        <f>MIN(L256:L2237)</f>
+        <v>0</v>
+      </c>
+      <c r="M242" s="40">
+        <f>MIN(M256:M2237)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K243" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="L243" s="40">
+        <f>QUARTILE(L256:L2237,1)</f>
+        <v>1</v>
+      </c>
+      <c r="M243" s="40">
+        <f>QUARTILE(M256:M2237,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K244" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="L244" s="40">
+        <f>MEDIAN(L256:L2237)</f>
+        <v>2</v>
+      </c>
+      <c r="M244" s="40">
+        <f>MEDIAN(M256:M2237)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K245" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="L245" s="40">
+        <f>QUARTILE(L256:L2237,3)</f>
+        <v>5.625</v>
+      </c>
+      <c r="M245" s="40">
+        <f>QUARTILE(M256:M2237,3)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K246" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="L246" s="40">
+        <f>MAX(L256:L2237)</f>
+        <v>9</v>
+      </c>
+      <c r="M246" s="40">
+        <f>MAX(M256:M2237)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K247" s="36"/>
+      <c r="L247" s="40"/>
+      <c r="M247" s="40"/>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K248" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="L248" s="40">
+        <f>L243-L242</f>
+        <v>1</v>
+      </c>
+      <c r="M248" s="40">
+        <f>M243-M242</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K249" s="36" t="str">
+        <f>K243</f>
+        <v>Q1</v>
+      </c>
+      <c r="L249" s="40">
+        <f>L243</f>
+        <v>1</v>
+      </c>
+      <c r="M249" s="40">
+        <f>M243</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K250" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="L250" s="40">
+        <f t="shared" ref="L250:M252" si="0">L244-L243</f>
+        <v>1</v>
+      </c>
+      <c r="M250" s="40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K251" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="L251" s="40">
+        <f t="shared" si="0"/>
+        <v>3.625</v>
+      </c>
+      <c r="M251" s="40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K252" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="L252" s="40">
+        <f t="shared" si="0"/>
+        <v>3.375</v>
+      </c>
+      <c r="M252" s="40">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L253" s="41"/>
+      <c r="M253" s="41"/>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L254" s="41"/>
+      <c r="M254" s="41"/>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K255" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="L255" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="M255" s="39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K256" s="36">
+        <v>1</v>
+      </c>
+      <c r="L256" s="36">
+        <v>1</v>
+      </c>
+      <c r="M256" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="10:26" ht="21" x14ac:dyDescent="0.25">
+      <c r="K257" s="36">
+        <v>2</v>
+      </c>
+      <c r="L257" s="36">
+        <v>6</v>
+      </c>
+      <c r="M257" s="36">
+        <v>1</v>
+      </c>
+      <c r="O257" s="42"/>
+      <c r="P257" s="43"/>
+      <c r="Q257" s="44"/>
+      <c r="R257" s="44"/>
+      <c r="S257" s="44"/>
+      <c r="T257" s="44"/>
+      <c r="U257" s="44"/>
+      <c r="V257" s="44"/>
+      <c r="W257" s="44"/>
+      <c r="X257" s="45"/>
+      <c r="Y257" s="45"/>
+      <c r="Z257" s="45"/>
+    </row>
+    <row r="258" spans="10:26" ht="21" x14ac:dyDescent="0.25">
+      <c r="K258" s="36">
+        <v>3</v>
+      </c>
+      <c r="L258" s="36">
+        <v>0</v>
+      </c>
+      <c r="M258" s="36">
+        <v>2</v>
+      </c>
+      <c r="O258" s="46"/>
+      <c r="P258" s="46"/>
+      <c r="Q258" s="46"/>
+      <c r="R258" s="47"/>
+      <c r="S258" s="47"/>
+      <c r="T258" s="47"/>
+      <c r="U258" s="47"/>
+      <c r="V258" s="47"/>
+      <c r="W258" s="47"/>
+      <c r="X258" s="48"/>
+      <c r="Y258" s="48"/>
+      <c r="Z258" s="48"/>
+    </row>
+    <row r="259" spans="10:26" ht="21" x14ac:dyDescent="0.25">
+      <c r="K259" s="36">
+        <v>4</v>
+      </c>
+      <c r="L259" s="36">
+        <v>0</v>
+      </c>
+      <c r="M259" s="36">
+        <v>1</v>
+      </c>
+      <c r="O259" s="49"/>
+      <c r="P259" s="49"/>
+      <c r="Q259" s="49"/>
+      <c r="R259" s="49"/>
+      <c r="S259" s="49"/>
+      <c r="T259" s="49"/>
+      <c r="U259" s="47"/>
+      <c r="V259" s="47"/>
+      <c r="W259" s="47"/>
+      <c r="X259" s="48"/>
+      <c r="Y259" s="48"/>
+      <c r="Z259" s="48"/>
+    </row>
+    <row r="260" spans="10:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K260" s="36">
+        <v>5</v>
+      </c>
+      <c r="L260" s="36">
+        <v>1</v>
+      </c>
+      <c r="M260" s="36">
+        <v>3</v>
+      </c>
+      <c r="Z260" s="48"/>
+    </row>
+    <row r="261" spans="10:26" ht="21" x14ac:dyDescent="0.35">
+      <c r="K261" s="36">
+        <v>6</v>
+      </c>
+      <c r="L261" s="36">
+        <v>1</v>
+      </c>
+      <c r="M261" s="36">
+        <v>0</v>
+      </c>
+      <c r="O261" s="50"/>
+      <c r="P261" s="50"/>
+      <c r="Q261" s="50"/>
+      <c r="R261" s="50"/>
+      <c r="S261" s="50"/>
+      <c r="T261" s="50"/>
+      <c r="U261" s="50"/>
+      <c r="V261" s="50"/>
+      <c r="W261" s="50"/>
+      <c r="X261" s="50"/>
+      <c r="Y261" s="50"/>
+      <c r="Z261" s="50"/>
+    </row>
+    <row r="262" spans="10:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K262" s="53">
+        <v>7</v>
+      </c>
+      <c r="L262" s="53">
+        <v>3</v>
+      </c>
+      <c r="M262" s="53">
+        <v>1</v>
+      </c>
+      <c r="Z262" s="48"/>
+    </row>
+    <row r="263" spans="10:26" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J263" s="38"/>
+      <c r="K263" s="56"/>
+      <c r="L263" s="57"/>
+      <c r="M263" s="57"/>
+      <c r="O263" s="51"/>
+      <c r="P263" s="55"/>
+      <c r="Q263" s="51"/>
+      <c r="R263" s="51"/>
+      <c r="S263" s="51"/>
+      <c r="T263" s="51"/>
+      <c r="U263" s="51"/>
+      <c r="V263" s="51"/>
+      <c r="W263" s="51"/>
+      <c r="Z263" s="48"/>
+    </row>
+    <row r="264" spans="10:26" ht="21" x14ac:dyDescent="0.35">
+      <c r="J264" s="38"/>
+      <c r="K264" s="38"/>
+      <c r="L264" s="54"/>
+      <c r="M264" s="54"/>
+      <c r="N264" s="38"/>
+      <c r="O264" s="52"/>
+      <c r="Z264" s="48"/>
+    </row>
+    <row r="265" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J265" s="38"/>
+      <c r="K265" s="38"/>
+      <c r="L265" s="54"/>
+      <c r="M265" s="54"/>
+      <c r="N265" s="38"/>
+    </row>
+    <row r="266" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J266" s="38"/>
+      <c r="K266" s="38"/>
+      <c r="L266" s="54"/>
+      <c r="M266" s="54"/>
+      <c r="N266" s="38"/>
+    </row>
+    <row r="267" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J267" s="38"/>
+    </row>
+    <row r="268" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J268" s="38"/>
+    </row>
+    <row r="269" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J269" s="38"/>
+      <c r="K269" s="36"/>
+      <c r="L269" s="39" t="str">
+        <f>L283</f>
+        <v>SW</v>
+      </c>
+      <c r="M269" s="39" t="str">
+        <f>M283</f>
+        <v>HW</v>
+      </c>
+    </row>
+    <row r="270" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J270" s="38"/>
+      <c r="K270" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="L270" s="40">
+        <f>MIN(L284:L2265)</f>
+        <v>1</v>
+      </c>
+      <c r="M270" s="40">
+        <f>MIN(M284:M2265)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J271" s="38"/>
+      <c r="K271" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="L271" s="40">
+        <f>QUARTILE(L284:L2265,1)</f>
+        <v>2</v>
+      </c>
+      <c r="M271" s="40">
+        <f>QUARTILE(M284:M2265,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J272" s="38"/>
+      <c r="K272" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="L272" s="40">
+        <f>MEDIAN(L284:L2265)</f>
+        <v>3</v>
+      </c>
+      <c r="M272" s="40">
+        <f>MEDIAN(M284:M2265)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J273" s="38"/>
+      <c r="K273" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="L273" s="40">
+        <f>QUARTILE(L284:L2265,3)</f>
+        <v>8.5</v>
+      </c>
+      <c r="M273" s="40">
+        <f>QUARTILE(M284:M2265,3)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="274" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J274" s="38"/>
+      <c r="K274" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="L274" s="40">
+        <f>MAX(L284:L2265)</f>
+        <v>9</v>
+      </c>
+      <c r="M274" s="40">
+        <f>MAX(M284:M2265)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J275" s="38"/>
+      <c r="K275" s="36"/>
+      <c r="L275" s="40"/>
+      <c r="M275" s="40"/>
+    </row>
+    <row r="276" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J276" s="38"/>
+      <c r="K276" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="L276" s="40">
+        <f>L271-L270</f>
+        <v>1</v>
+      </c>
+      <c r="M276" s="40">
+        <f>M271-M270</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J277" s="38"/>
+      <c r="K277" s="36" t="str">
+        <f>K271</f>
+        <v>Q1</v>
+      </c>
+      <c r="L277" s="40">
+        <f>L271</f>
+        <v>2</v>
+      </c>
+      <c r="M277" s="40">
+        <f>M271</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J278" s="38"/>
+      <c r="K278" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="L278" s="40">
+        <f t="shared" ref="L278:M278" si="1">L272-L271</f>
+        <v>1</v>
+      </c>
+      <c r="M278" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J279" s="38"/>
+      <c r="K279" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="L279" s="40">
+        <f t="shared" ref="L279:M279" si="2">L273-L272</f>
+        <v>5.5</v>
+      </c>
+      <c r="M279" s="40">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="280" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J280" s="38"/>
+      <c r="K280" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="L280" s="40">
+        <f t="shared" ref="L280:M280" si="3">L274-L273</f>
+        <v>0.5</v>
+      </c>
+      <c r="M280" s="40">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="281" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J281" s="38"/>
+      <c r="L281" s="41"/>
+      <c r="M281" s="41"/>
+    </row>
+    <row r="282" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J282" s="38"/>
+      <c r="L282" s="41"/>
+      <c r="M282" s="41"/>
+    </row>
+    <row r="283" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J283" s="38"/>
+      <c r="K283" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="L283" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="M283" s="39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J284" s="38"/>
+      <c r="K284" s="36">
+        <v>1</v>
+      </c>
+      <c r="L284" s="36">
+        <v>3</v>
+      </c>
+      <c r="M284" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="10:26" ht="21" x14ac:dyDescent="0.25">
+      <c r="J285" s="38"/>
+      <c r="K285" s="36">
+        <v>2</v>
+      </c>
+      <c r="L285" s="36">
+        <v>9</v>
+      </c>
+      <c r="M285" s="36">
+        <v>9</v>
+      </c>
+      <c r="O285" s="42"/>
+      <c r="P285" s="43"/>
+      <c r="Q285" s="44"/>
+      <c r="R285" s="44"/>
+      <c r="S285" s="44"/>
+      <c r="T285" s="44"/>
+      <c r="U285" s="44"/>
+      <c r="V285" s="44"/>
+      <c r="W285" s="44"/>
+      <c r="X285" s="45"/>
+      <c r="Y285" s="45"/>
+      <c r="Z285" s="45"/>
+    </row>
+    <row r="286" spans="10:26" ht="21" x14ac:dyDescent="0.25">
+      <c r="J286" s="38"/>
+      <c r="K286" s="36">
+        <v>3</v>
+      </c>
+      <c r="L286" s="36">
+        <v>9</v>
+      </c>
+      <c r="M286" s="36">
+        <v>10</v>
+      </c>
+      <c r="O286" s="46"/>
+      <c r="P286" s="46"/>
+      <c r="Q286" s="46"/>
+      <c r="R286" s="47"/>
+      <c r="S286" s="47"/>
+      <c r="T286" s="47"/>
+      <c r="U286" s="47"/>
+      <c r="V286" s="47"/>
+      <c r="W286" s="47"/>
+      <c r="X286" s="48"/>
+      <c r="Y286" s="48"/>
+      <c r="Z286" s="48"/>
+    </row>
+    <row r="287" spans="10:26" ht="21" x14ac:dyDescent="0.25">
+      <c r="J287" s="38"/>
+      <c r="K287" s="36">
+        <v>4</v>
+      </c>
+      <c r="L287" s="36">
+        <v>2</v>
+      </c>
+      <c r="M287" s="36">
+        <v>1</v>
+      </c>
+      <c r="O287" s="49"/>
+      <c r="P287" s="49"/>
+      <c r="Q287" s="49"/>
+      <c r="R287" s="49"/>
+      <c r="S287" s="49"/>
+      <c r="T287" s="49"/>
+      <c r="U287" s="47"/>
+      <c r="V287" s="47"/>
+      <c r="W287" s="47"/>
+      <c r="X287" s="48"/>
+      <c r="Y287" s="48"/>
+      <c r="Z287" s="48"/>
+    </row>
+    <row r="288" spans="10:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J288" s="38"/>
+      <c r="K288" s="36">
+        <v>5</v>
+      </c>
+      <c r="L288" s="36">
+        <v>2</v>
+      </c>
+      <c r="M288" s="36">
+        <v>5</v>
+      </c>
+      <c r="Z288" s="48"/>
+    </row>
+    <row r="289" spans="10:26" ht="21" x14ac:dyDescent="0.35">
+      <c r="J289" s="38"/>
+      <c r="K289" s="36">
+        <v>6</v>
+      </c>
+      <c r="L289" s="36">
+        <v>1</v>
+      </c>
+      <c r="M289" s="36">
+        <v>3</v>
+      </c>
+      <c r="O289" s="50"/>
+      <c r="P289" s="50"/>
+      <c r="Q289" s="50"/>
+      <c r="R289" s="50"/>
+      <c r="S289" s="50"/>
+      <c r="T289" s="50"/>
+      <c r="U289" s="50"/>
+      <c r="V289" s="50"/>
+      <c r="W289" s="50"/>
+      <c r="X289" s="50"/>
+      <c r="Y289" s="50"/>
+      <c r="Z289" s="50"/>
+    </row>
+    <row r="290" spans="10:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J290" s="38"/>
+      <c r="K290" s="53">
+        <v>7</v>
+      </c>
+      <c r="L290" s="36">
+        <v>8</v>
+      </c>
+      <c r="M290" s="36">
+        <v>6</v>
+      </c>
+      <c r="Z290" s="48"/>
+    </row>
+    <row r="291" spans="10:26" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J291" s="38"/>
+      <c r="K291" s="56"/>
+      <c r="L291" s="57"/>
+      <c r="M291" s="57"/>
+      <c r="O291" s="51"/>
+      <c r="P291" s="55"/>
+      <c r="Q291" s="51"/>
+      <c r="R291" s="51"/>
+      <c r="S291" s="51"/>
+      <c r="T291" s="51"/>
+      <c r="U291" s="51"/>
+      <c r="V291" s="51"/>
+      <c r="W291" s="51"/>
+      <c r="Z291" s="48"/>
+    </row>
+    <row r="292" spans="10:26" ht="21" x14ac:dyDescent="0.35">
+      <c r="J292" s="38"/>
+      <c r="K292" s="38"/>
+      <c r="L292" s="54"/>
+      <c r="M292" s="54"/>
+      <c r="N292" s="38"/>
+      <c r="O292" s="52"/>
+      <c r="Z292" s="48"/>
+    </row>
+    <row r="293" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J293" s="38"/>
+      <c r="K293" s="38"/>
+      <c r="L293" s="54"/>
+      <c r="M293" s="54"/>
+      <c r="N293" s="38"/>
+    </row>
+    <row r="294" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J294" s="38"/>
+      <c r="K294" s="38"/>
+      <c r="L294" s="54"/>
+      <c r="M294" s="54"/>
+      <c r="N294" s="38"/>
+    </row>
+    <row r="295" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J295" s="38"/>
+      <c r="K295" s="38"/>
+      <c r="L295" s="54"/>
+      <c r="M295" s="54"/>
+      <c r="N295" s="38"/>
+    </row>
+    <row r="296" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J296" s="38"/>
+      <c r="K296" s="38"/>
+      <c r="L296" s="54"/>
+      <c r="M296" s="54"/>
+      <c r="N296" s="38"/>
+    </row>
+    <row r="297" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J297" s="38"/>
+      <c r="K297" s="38"/>
+      <c r="L297" s="54"/>
+      <c r="M297" s="54"/>
+      <c r="N297" s="38"/>
+    </row>
+    <row r="298" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J298" s="38"/>
+      <c r="K298" s="38"/>
+      <c r="L298" s="54"/>
+      <c r="M298" s="54"/>
+      <c r="N298" s="38"/>
+    </row>
+    <row r="299" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J299" s="38"/>
+      <c r="K299" s="38"/>
+      <c r="L299" s="54"/>
+      <c r="M299" s="54"/>
+      <c r="N299" s="38"/>
+    </row>
+    <row r="300" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J300" s="38"/>
+      <c r="K300" s="38"/>
+      <c r="L300" s="54"/>
+      <c r="M300" s="54"/>
+      <c r="N300" s="38"/>
+    </row>
+    <row r="301" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J301" s="38"/>
+      <c r="K301" s="38"/>
+      <c r="L301" s="54"/>
+      <c r="M301" s="54"/>
+      <c r="N301" s="38"/>
+    </row>
+    <row r="302" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J302" s="38"/>
+      <c r="K302" s="38"/>
+      <c r="L302" s="54"/>
+      <c r="M302" s="54"/>
+      <c r="N302" s="38"/>
+    </row>
+    <row r="303" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J303" s="38"/>
+      <c r="K303" s="38"/>
+      <c r="L303" s="54"/>
+      <c r="M303" s="54"/>
+      <c r="N303" s="38"/>
+    </row>
+    <row r="304" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="J304" s="38"/>
+      <c r="K304" s="38"/>
+      <c r="L304" s="54"/>
+      <c r="M304" s="54"/>
+      <c r="N304" s="38"/>
+    </row>
+    <row r="305" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J305" s="38"/>
+      <c r="K305" s="38"/>
+      <c r="L305" s="54"/>
+      <c r="M305" s="54"/>
+      <c r="N305" s="38"/>
+    </row>
+    <row r="306" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J306" s="38"/>
+      <c r="K306" s="38"/>
+      <c r="L306" s="54"/>
+      <c r="M306" s="54"/>
+      <c r="N306" s="38"/>
+    </row>
+    <row r="307" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J307" s="38"/>
+      <c r="K307" s="38"/>
+      <c r="L307" s="54"/>
+      <c r="M307" s="54"/>
+      <c r="N307" s="38"/>
+    </row>
+    <row r="308" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J308" s="38"/>
+      <c r="K308" s="38"/>
+      <c r="L308" s="54"/>
+      <c r="M308" s="54"/>
+      <c r="N308" s="38"/>
+    </row>
+    <row r="309" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J309" s="38"/>
+      <c r="K309" s="38"/>
+      <c r="L309" s="54"/>
+      <c r="M309" s="54"/>
+      <c r="N309" s="38"/>
+    </row>
+    <row r="310" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J310" s="38"/>
+      <c r="K310" s="38"/>
+      <c r="L310" s="54"/>
+      <c r="M310" s="54"/>
+      <c r="N310" s="38"/>
+    </row>
+    <row r="311" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J311" s="38"/>
+      <c r="K311" s="38"/>
+      <c r="L311" s="54"/>
+      <c r="M311" s="54"/>
+      <c r="N311" s="38"/>
+    </row>
+    <row r="312" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J312" s="38"/>
+      <c r="K312" s="38"/>
+      <c r="L312" s="54"/>
+      <c r="M312" s="54"/>
+      <c r="N312" s="38"/>
+    </row>
+    <row r="313" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J313" s="38"/>
+      <c r="K313" s="38"/>
+      <c r="L313" s="54"/>
+      <c r="M313" s="54"/>
+      <c r="N313" s="38"/>
+    </row>
+    <row r="314" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J314" s="38"/>
+      <c r="K314" s="38"/>
+      <c r="L314" s="54"/>
+      <c r="M314" s="54"/>
+      <c r="N314" s="38"/>
+    </row>
+    <row r="315" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J315" s="38"/>
+      <c r="K315" s="38"/>
+      <c r="L315" s="54"/>
+      <c r="M315" s="54"/>
+      <c r="N315" s="38"/>
+    </row>
+    <row r="316" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J316" s="38"/>
+      <c r="K316" s="38"/>
+      <c r="L316" s="54"/>
+      <c r="M316" s="54"/>
+      <c r="N316" s="38"/>
+    </row>
+    <row r="317" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J317" s="38"/>
+      <c r="K317" s="38"/>
+      <c r="L317" s="54"/>
+      <c r="M317" s="54"/>
+      <c r="N317" s="38"/>
+    </row>
+    <row r="318" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J318" s="38"/>
+      <c r="K318" s="38"/>
+      <c r="L318" s="54"/>
+      <c r="M318" s="54"/>
+      <c r="N318" s="38"/>
+    </row>
+    <row r="319" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J319" s="38"/>
+      <c r="K319" s="38"/>
+      <c r="L319" s="38"/>
+      <c r="M319" s="38"/>
+      <c r="N319" s="38"/>
+    </row>
+    <row r="320" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J320" s="38"/>
+      <c r="K320" s="38"/>
+      <c r="L320" s="38"/>
+      <c r="M320" s="38"/>
+      <c r="N320" s="38"/>
+    </row>
+    <row r="321" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J321" s="38"/>
+      <c r="K321" s="38"/>
+      <c r="L321" s="38"/>
+      <c r="M321" s="38"/>
+      <c r="N321" s="38"/>
+    </row>
+    <row r="322" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J322" s="38"/>
+      <c r="K322" s="38"/>
+      <c r="L322" s="38"/>
+      <c r="M322" s="38"/>
+      <c r="N322" s="38"/>
+    </row>
+    <row r="323" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J323" s="38"/>
+      <c r="K323" s="38"/>
+      <c r="L323" s="38"/>
+      <c r="M323" s="38"/>
+      <c r="N323" s="38"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="O258:Q258"/>
+    <mergeCell ref="O259:T259"/>
+    <mergeCell ref="O261:Z261"/>
+    <mergeCell ref="O286:Q286"/>
+    <mergeCell ref="O287:T287"/>
+    <mergeCell ref="O289:Z289"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/HW-SW-VGL-2.xlsx
+++ b/HW-SW-VGL-2.xlsx
@@ -11,15 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="131">
   <si>
     <t>Nutzer 1</t>
   </si>
@@ -400,6 +397,18 @@
   </si>
   <si>
     <t>1 Sek</t>
+  </si>
+  <si>
+    <t>Mittelwert</t>
+  </si>
+  <si>
+    <t>Standardabweichung</t>
+  </si>
+  <si>
+    <t>Varianz</t>
+  </si>
+  <si>
+    <t>1Sekunde</t>
   </si>
 </sst>
 </file>
@@ -868,7 +877,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -933,16 +942,26 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -952,15 +971,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1150,11 +1165,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="129425792"/>
-        <c:axId val="129427328"/>
+        <c:axId val="132062208"/>
+        <c:axId val="132072192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="129425792"/>
+        <c:axId val="132062208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1164,7 +1179,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129427328"/>
+        <c:crossAx val="132072192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1172,7 +1187,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129427328"/>
+        <c:axId val="132072192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1183,7 +1198,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129425792"/>
+        <c:crossAx val="132062208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1390,11 +1405,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="57612544"/>
-        <c:axId val="57628544"/>
+        <c:axId val="135925120"/>
+        <c:axId val="135935104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57612544"/>
+        <c:axId val="135925120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1403,7 +1418,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57628544"/>
+        <c:crossAx val="135935104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1411,7 +1426,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57628544"/>
+        <c:axId val="135935104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1422,7 +1437,323 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57612544"/>
+        <c:crossAx val="135925120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Q$264:$R$264</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>2.1380899352993952</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.95118973121134187</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Q$264:$R$264</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>2.1380899352993952</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.95118973121134187</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$Q$262:$R$262</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$263:$R$263</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0.0\ _€_-;\-* #,##0.0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-">
+                  <c:v>1.7142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2857142857142858</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="55394688"/>
+        <c:axId val="55396224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="55394688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="55396224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="55396224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="_-* #,##0.0\ _€_-;\-* #,##0.0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="55394688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0141294838145231E-2"/>
+          <c:y val="7.4548702245552642E-2"/>
+          <c:w val="0.72016513560804896"/>
+          <c:h val="0.8326195683872849"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Q$292:$R$292</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>3.625307868699863</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.1547394428670259</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Q$292:$R$292</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>3.625307868699863</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.1547394428670259</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$Q$290:$R$290</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$291:$R$291</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0.0\ _€_-;\-* #,##0.0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-">
+                  <c:v>4.8571428571428568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5714285714285712</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="136963200"/>
+        <c:axId val="136964736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="136963200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="136964736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="136964736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="_-* #,##0.0\ _€_-;\-* #,##0.0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="136963200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1506,69 +1837,67 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>51197</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>163116</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>75010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>198835</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Boxplot"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="C2" t="str">
-            <v>März</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>April</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>22.131805555633036</v>
-          </cell>
-          <cell r="D9">
-            <v>8.2823611110798083</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>45.131805555633036</v>
-          </cell>
-          <cell r="D10">
-            <v>26.697083333332557</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>5.3854166665405501</v>
-          </cell>
-          <cell r="D11">
-            <v>15.319305555545725</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>13.180833333462942</v>
-          </cell>
-          <cell r="D12">
-            <v>8.4415277778462041</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>31.037777777644806</v>
-          </cell>
-          <cell r="D13">
-            <v>41.664861111174105</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1860,15 +2189,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R237" sqref="R237"/>
+    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P290" sqref="P290:R293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7681,6 +8013,9 @@
       <c r="H239" s="9">
         <v>551944</v>
       </c>
+      <c r="P239" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="240" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="16">
@@ -7727,7 +8062,9 @@
       <c r="H241" s="13">
         <v>6</v>
       </c>
-      <c r="K241" s="36"/>
+      <c r="K241" s="36" t="s">
+        <v>1</v>
+      </c>
       <c r="L241" s="39" t="str">
         <f>L255</f>
         <v>SW</v>
@@ -7903,7 +8240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="10:26" ht="21" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:26" ht="21" x14ac:dyDescent="0.25">
       <c r="K257" s="36">
         <v>2</v>
       </c>
@@ -7926,7 +8263,10 @@
       <c r="Y257" s="45"/>
       <c r="Z257" s="45"/>
     </row>
-    <row r="258" spans="10:26" ht="21" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:26" ht="21" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>130</v>
+      </c>
       <c r="K258" s="36">
         <v>3</v>
       </c>
@@ -7936,20 +8276,20 @@
       <c r="M258" s="36">
         <v>2</v>
       </c>
-      <c r="O258" s="46"/>
-      <c r="P258" s="46"/>
-      <c r="Q258" s="46"/>
-      <c r="R258" s="47"/>
-      <c r="S258" s="47"/>
-      <c r="T258" s="47"/>
-      <c r="U258" s="47"/>
-      <c r="V258" s="47"/>
-      <c r="W258" s="47"/>
-      <c r="X258" s="48"/>
-      <c r="Y258" s="48"/>
-      <c r="Z258" s="48"/>
-    </row>
-    <row r="259" spans="10:26" ht="21" x14ac:dyDescent="0.25">
+      <c r="O258" s="54"/>
+      <c r="P258" s="54"/>
+      <c r="Q258" s="54"/>
+      <c r="R258" s="46"/>
+      <c r="S258" s="46"/>
+      <c r="T258" s="46"/>
+      <c r="U258" s="46"/>
+      <c r="V258" s="46"/>
+      <c r="W258" s="46"/>
+      <c r="X258" s="47"/>
+      <c r="Y258" s="47"/>
+      <c r="Z258" s="47"/>
+    </row>
+    <row r="259" spans="2:26" ht="21" x14ac:dyDescent="0.25">
       <c r="K259" s="36">
         <v>4</v>
       </c>
@@ -7959,20 +8299,20 @@
       <c r="M259" s="36">
         <v>1</v>
       </c>
-      <c r="O259" s="49"/>
-      <c r="P259" s="49"/>
-      <c r="Q259" s="49"/>
-      <c r="R259" s="49"/>
-      <c r="S259" s="49"/>
-      <c r="T259" s="49"/>
-      <c r="U259" s="47"/>
-      <c r="V259" s="47"/>
-      <c r="W259" s="47"/>
-      <c r="X259" s="48"/>
-      <c r="Y259" s="48"/>
-      <c r="Z259" s="48"/>
-    </row>
-    <row r="260" spans="10:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O259" s="55"/>
+      <c r="P259" s="55"/>
+      <c r="Q259" s="55"/>
+      <c r="R259" s="55"/>
+      <c r="S259" s="55"/>
+      <c r="T259" s="55"/>
+      <c r="U259" s="46"/>
+      <c r="V259" s="46"/>
+      <c r="W259" s="46"/>
+      <c r="X259" s="47"/>
+      <c r="Y259" s="47"/>
+      <c r="Z259" s="47"/>
+    </row>
+    <row r="260" spans="2:26" ht="18.75" x14ac:dyDescent="0.25">
       <c r="K260" s="36">
         <v>5</v>
       </c>
@@ -7982,9 +8322,9 @@
       <c r="M260" s="36">
         <v>3</v>
       </c>
-      <c r="Z260" s="48"/>
-    </row>
-    <row r="261" spans="10:26" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z260" s="47"/>
+    </row>
+    <row r="261" spans="2:26" ht="21" x14ac:dyDescent="0.35">
       <c r="K261" s="36">
         <v>6</v>
       </c>
@@ -7994,79 +8334,117 @@
       <c r="M261" s="36">
         <v>0</v>
       </c>
-      <c r="O261" s="50"/>
-      <c r="P261" s="50"/>
-      <c r="Q261" s="50"/>
-      <c r="R261" s="50"/>
-      <c r="S261" s="50"/>
-      <c r="T261" s="50"/>
-      <c r="U261" s="50"/>
-      <c r="V261" s="50"/>
-      <c r="W261" s="50"/>
-      <c r="X261" s="50"/>
-      <c r="Y261" s="50"/>
-      <c r="Z261" s="50"/>
-    </row>
-    <row r="262" spans="10:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="K262" s="53">
+      <c r="O261" s="56"/>
+      <c r="P261" s="56"/>
+      <c r="Q261" s="56"/>
+      <c r="R261" s="56"/>
+      <c r="S261" s="56"/>
+      <c r="T261" s="56"/>
+      <c r="U261" s="56"/>
+      <c r="V261" s="56"/>
+      <c r="W261" s="56"/>
+      <c r="X261" s="56"/>
+      <c r="Y261" s="56"/>
+      <c r="Z261" s="56"/>
+    </row>
+    <row r="262" spans="2:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K262" s="36">
         <v>7</v>
       </c>
-      <c r="L262" s="53">
+      <c r="L262" s="36">
         <v>3</v>
       </c>
-      <c r="M262" s="53">
+      <c r="M262" s="36">
         <v>1</v>
       </c>
-      <c r="Z262" s="48"/>
-    </row>
-    <row r="263" spans="10:26" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="P262" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q262" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="R262" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z262" s="47"/>
+    </row>
+    <row r="263" spans="2:26" ht="23.25" x14ac:dyDescent="0.35">
       <c r="J263" s="38"/>
-      <c r="K263" s="56"/>
-      <c r="L263" s="57"/>
-      <c r="M263" s="57"/>
-      <c r="O263" s="51"/>
-      <c r="P263" s="55"/>
-      <c r="Q263" s="51"/>
-      <c r="R263" s="51"/>
-      <c r="S263" s="51"/>
-      <c r="T263" s="51"/>
-      <c r="U263" s="51"/>
-      <c r="V263" s="51"/>
-      <c r="W263" s="51"/>
-      <c r="Z263" s="48"/>
-    </row>
-    <row r="264" spans="10:26" ht="21" x14ac:dyDescent="0.35">
+      <c r="M263" s="51"/>
+      <c r="O263" s="48"/>
+      <c r="P263" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q263" s="57">
+        <f>AVERAGE(L256:L262)</f>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="R263" s="58">
+        <f>AVERAGE(M256:M262)</f>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="S263" s="48"/>
+      <c r="T263" s="48"/>
+      <c r="U263" s="48"/>
+      <c r="V263" s="48"/>
+      <c r="W263" s="48"/>
+      <c r="Z263" s="47"/>
+    </row>
+    <row r="264" spans="2:26" ht="21" x14ac:dyDescent="0.35">
       <c r="J264" s="38"/>
-      <c r="K264" s="38"/>
-      <c r="L264" s="54"/>
-      <c r="M264" s="54"/>
+      <c r="M264" s="51"/>
       <c r="N264" s="38"/>
-      <c r="O264" s="52"/>
-      <c r="Z264" s="48"/>
-    </row>
-    <row r="265" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="O264" s="49"/>
+      <c r="P264" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q264" s="59">
+        <f xml:space="preserve"> STDEV(L256:L262)</f>
+        <v>2.1380899352993952</v>
+      </c>
+      <c r="R264" s="36">
+        <f xml:space="preserve"> STDEV(M256:M262)</f>
+        <v>0.95118973121134187</v>
+      </c>
+      <c r="Z264" s="47"/>
+    </row>
+    <row r="265" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J265" s="38"/>
-      <c r="K265" s="38"/>
-      <c r="L265" s="54"/>
-      <c r="M265" s="54"/>
+      <c r="M265" s="51"/>
       <c r="N265" s="38"/>
-    </row>
-    <row r="266" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="P265" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q265" s="59">
+        <f xml:space="preserve"> VAR(L256:L262)</f>
+        <v>4.5714285714285712</v>
+      </c>
+      <c r="R265" s="36">
+        <f xml:space="preserve"> VAR(M256:M262)</f>
+        <v>0.90476190476190477</v>
+      </c>
+    </row>
+    <row r="266" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J266" s="38"/>
       <c r="K266" s="38"/>
-      <c r="L266" s="54"/>
-      <c r="M266" s="54"/>
+      <c r="L266" s="51"/>
+      <c r="M266" s="51"/>
       <c r="N266" s="38"/>
     </row>
-    <row r="267" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J267" s="38"/>
     </row>
-    <row r="268" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J268" s="38"/>
-    </row>
-    <row r="269" spans="10:26" x14ac:dyDescent="0.25">
+      <c r="P268" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J269" s="38"/>
-      <c r="K269" s="36"/>
+      <c r="K269" s="36" t="s">
+        <v>2</v>
+      </c>
       <c r="L269" s="39" t="str">
         <f>L283</f>
         <v>SW</v>
@@ -8076,7 +8454,7 @@
         <v>HW</v>
       </c>
     </row>
-    <row r="270" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J270" s="38"/>
       <c r="K270" s="36" t="s">
         <v>117</v>
@@ -8090,7 +8468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J271" s="38"/>
       <c r="K271" s="36" t="s">
         <v>118</v>
@@ -8104,7 +8482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J272" s="38"/>
       <c r="K272" s="36" t="s">
         <v>119</v>
@@ -8118,7 +8496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J273" s="38"/>
       <c r="K273" s="36" t="s">
         <v>120</v>
@@ -8132,7 +8510,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="274" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J274" s="38"/>
       <c r="K274" s="36" t="s">
         <v>121</v>
@@ -8146,13 +8524,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J275" s="38"/>
       <c r="K275" s="36"/>
       <c r="L275" s="40"/>
       <c r="M275" s="40"/>
     </row>
-    <row r="276" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>2</v>
+      </c>
       <c r="J276" s="38"/>
       <c r="K276" s="36" t="s">
         <v>122</v>
@@ -8166,7 +8547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J277" s="38"/>
       <c r="K277" s="36" t="str">
         <f>K271</f>
@@ -8181,7 +8562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J278" s="38"/>
       <c r="K278" s="36" t="s">
         <v>123</v>
@@ -8195,7 +8576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J279" s="38"/>
       <c r="K279" s="36" t="s">
         <v>124</v>
@@ -8209,7 +8590,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="280" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J280" s="38"/>
       <c r="K280" s="36" t="s">
         <v>125</v>
@@ -8223,17 +8604,17 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="281" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J281" s="38"/>
       <c r="L281" s="41"/>
       <c r="M281" s="41"/>
     </row>
-    <row r="282" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J282" s="38"/>
       <c r="L282" s="41"/>
       <c r="M282" s="41"/>
     </row>
-    <row r="283" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J283" s="38"/>
       <c r="K283" s="36" t="s">
         <v>2</v>
@@ -8245,7 +8626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J284" s="38"/>
       <c r="K284" s="36">
         <v>1</v>
@@ -8257,7 +8638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="10:26" ht="21" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:26" ht="21" x14ac:dyDescent="0.25">
       <c r="J285" s="38"/>
       <c r="K285" s="36">
         <v>2</v>
@@ -8281,7 +8662,7 @@
       <c r="Y285" s="45"/>
       <c r="Z285" s="45"/>
     </row>
-    <row r="286" spans="10:26" ht="21" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:26" ht="21" x14ac:dyDescent="0.25">
       <c r="J286" s="38"/>
       <c r="K286" s="36">
         <v>3</v>
@@ -8292,20 +8673,20 @@
       <c r="M286" s="36">
         <v>10</v>
       </c>
-      <c r="O286" s="46"/>
-      <c r="P286" s="46"/>
-      <c r="Q286" s="46"/>
-      <c r="R286" s="47"/>
-      <c r="S286" s="47"/>
-      <c r="T286" s="47"/>
-      <c r="U286" s="47"/>
-      <c r="V286" s="47"/>
-      <c r="W286" s="47"/>
-      <c r="X286" s="48"/>
-      <c r="Y286" s="48"/>
-      <c r="Z286" s="48"/>
-    </row>
-    <row r="287" spans="10:26" ht="21" x14ac:dyDescent="0.25">
+      <c r="O286" s="54"/>
+      <c r="P286" s="54"/>
+      <c r="Q286" s="54"/>
+      <c r="R286" s="46"/>
+      <c r="S286" s="46"/>
+      <c r="T286" s="46"/>
+      <c r="U286" s="46"/>
+      <c r="V286" s="46"/>
+      <c r="W286" s="46"/>
+      <c r="X286" s="47"/>
+      <c r="Y286" s="47"/>
+      <c r="Z286" s="47"/>
+    </row>
+    <row r="287" spans="2:26" ht="21" x14ac:dyDescent="0.25">
       <c r="J287" s="38"/>
       <c r="K287" s="36">
         <v>4</v>
@@ -8316,20 +8697,20 @@
       <c r="M287" s="36">
         <v>1</v>
       </c>
-      <c r="O287" s="49"/>
-      <c r="P287" s="49"/>
-      <c r="Q287" s="49"/>
-      <c r="R287" s="49"/>
-      <c r="S287" s="49"/>
-      <c r="T287" s="49"/>
-      <c r="U287" s="47"/>
-      <c r="V287" s="47"/>
-      <c r="W287" s="47"/>
-      <c r="X287" s="48"/>
-      <c r="Y287" s="48"/>
-      <c r="Z287" s="48"/>
-    </row>
-    <row r="288" spans="10:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O287" s="55"/>
+      <c r="P287" s="55"/>
+      <c r="Q287" s="55"/>
+      <c r="R287" s="55"/>
+      <c r="S287" s="55"/>
+      <c r="T287" s="55"/>
+      <c r="U287" s="46"/>
+      <c r="V287" s="46"/>
+      <c r="W287" s="46"/>
+      <c r="X287" s="47"/>
+      <c r="Y287" s="47"/>
+      <c r="Z287" s="47"/>
+    </row>
+    <row r="288" spans="2:26" ht="18.75" x14ac:dyDescent="0.25">
       <c r="J288" s="38"/>
       <c r="K288" s="36">
         <v>5</v>
@@ -8340,7 +8721,7 @@
       <c r="M288" s="36">
         <v>5</v>
       </c>
-      <c r="Z288" s="48"/>
+      <c r="Z288" s="47"/>
     </row>
     <row r="289" spans="10:26" ht="21" x14ac:dyDescent="0.35">
       <c r="J289" s="38"/>
@@ -8353,22 +8734,22 @@
       <c r="M289" s="36">
         <v>3</v>
       </c>
-      <c r="O289" s="50"/>
-      <c r="P289" s="50"/>
-      <c r="Q289" s="50"/>
-      <c r="R289" s="50"/>
-      <c r="S289" s="50"/>
-      <c r="T289" s="50"/>
-      <c r="U289" s="50"/>
-      <c r="V289" s="50"/>
-      <c r="W289" s="50"/>
-      <c r="X289" s="50"/>
-      <c r="Y289" s="50"/>
-      <c r="Z289" s="50"/>
+      <c r="O289" s="56"/>
+      <c r="P289" s="56"/>
+      <c r="Q289" s="56"/>
+      <c r="R289" s="56"/>
+      <c r="S289" s="56"/>
+      <c r="T289" s="56"/>
+      <c r="U289" s="56"/>
+      <c r="V289" s="56"/>
+      <c r="W289" s="56"/>
+      <c r="X289" s="56"/>
+      <c r="Y289" s="56"/>
+      <c r="Z289" s="56"/>
     </row>
     <row r="290" spans="10:26" ht="18.75" x14ac:dyDescent="0.25">
       <c r="J290" s="38"/>
-      <c r="K290" s="53">
+      <c r="K290" s="50">
         <v>7</v>
       </c>
       <c r="L290" s="36">
@@ -8377,213 +8758,252 @@
       <c r="M290" s="36">
         <v>6</v>
       </c>
-      <c r="Z290" s="48"/>
+      <c r="P290" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q290" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="R290" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z290" s="47"/>
     </row>
     <row r="291" spans="10:26" ht="23.25" x14ac:dyDescent="0.35">
       <c r="J291" s="38"/>
-      <c r="K291" s="56"/>
-      <c r="L291" s="57"/>
-      <c r="M291" s="57"/>
-      <c r="O291" s="51"/>
-      <c r="P291" s="55"/>
-      <c r="Q291" s="51"/>
-      <c r="R291" s="51"/>
-      <c r="S291" s="51"/>
-      <c r="T291" s="51"/>
-      <c r="U291" s="51"/>
-      <c r="V291" s="51"/>
-      <c r="W291" s="51"/>
-      <c r="Z291" s="48"/>
+      <c r="K291" s="52"/>
+      <c r="L291" s="53"/>
+      <c r="M291" s="53"/>
+      <c r="O291" s="48"/>
+      <c r="P291" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q291" s="57">
+        <f>AVERAGE(L284:L290)</f>
+        <v>4.8571428571428568</v>
+      </c>
+      <c r="R291" s="58">
+        <f>AVERAGE(M284:M290)</f>
+        <v>5.5714285714285712</v>
+      </c>
+      <c r="S291" s="48"/>
+      <c r="T291" s="48"/>
+      <c r="U291" s="48"/>
+      <c r="V291" s="48"/>
+      <c r="W291" s="48"/>
+      <c r="Z291" s="47"/>
     </row>
     <row r="292" spans="10:26" ht="21" x14ac:dyDescent="0.35">
       <c r="J292" s="38"/>
       <c r="K292" s="38"/>
-      <c r="L292" s="54"/>
-      <c r="M292" s="54"/>
+      <c r="L292" s="51"/>
+      <c r="M292" s="51"/>
       <c r="N292" s="38"/>
-      <c r="O292" s="52"/>
-      <c r="Z292" s="48"/>
+      <c r="O292" s="49"/>
+      <c r="P292" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q292" s="59">
+        <f xml:space="preserve"> STDEV(L284:L290)</f>
+        <v>3.625307868699863</v>
+      </c>
+      <c r="R292" s="36">
+        <f xml:space="preserve"> STDEV(M284:M290)</f>
+        <v>3.1547394428670259</v>
+      </c>
+      <c r="Z292" s="47"/>
     </row>
     <row r="293" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J293" s="38"/>
       <c r="K293" s="38"/>
-      <c r="L293" s="54"/>
-      <c r="M293" s="54"/>
+      <c r="L293" s="51"/>
+      <c r="M293" s="51"/>
       <c r="N293" s="38"/>
+      <c r="P293" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q293" s="59">
+        <f xml:space="preserve"> VAR(L284:L290)</f>
+        <v>13.142857142857144</v>
+      </c>
+      <c r="R293" s="36">
+        <f xml:space="preserve"> VAR(M284:M290)</f>
+        <v>9.9523809523809543</v>
+      </c>
     </row>
     <row r="294" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J294" s="38"/>
       <c r="K294" s="38"/>
-      <c r="L294" s="54"/>
-      <c r="M294" s="54"/>
+      <c r="L294" s="51"/>
+      <c r="M294" s="51"/>
       <c r="N294" s="38"/>
     </row>
     <row r="295" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J295" s="38"/>
       <c r="K295" s="38"/>
-      <c r="L295" s="54"/>
-      <c r="M295" s="54"/>
+      <c r="L295" s="51"/>
+      <c r="M295" s="51"/>
       <c r="N295" s="38"/>
     </row>
     <row r="296" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J296" s="38"/>
       <c r="K296" s="38"/>
-      <c r="L296" s="54"/>
-      <c r="M296" s="54"/>
+      <c r="L296" s="51"/>
+      <c r="M296" s="51"/>
       <c r="N296" s="38"/>
     </row>
     <row r="297" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J297" s="38"/>
       <c r="K297" s="38"/>
-      <c r="L297" s="54"/>
-      <c r="M297" s="54"/>
+      <c r="L297" s="51"/>
+      <c r="M297" s="51"/>
       <c r="N297" s="38"/>
     </row>
     <row r="298" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J298" s="38"/>
       <c r="K298" s="38"/>
-      <c r="L298" s="54"/>
-      <c r="M298" s="54"/>
+      <c r="L298" s="51"/>
+      <c r="M298" s="51"/>
       <c r="N298" s="38"/>
     </row>
     <row r="299" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J299" s="38"/>
       <c r="K299" s="38"/>
-      <c r="L299" s="54"/>
-      <c r="M299" s="54"/>
+      <c r="L299" s="51"/>
+      <c r="M299" s="51"/>
       <c r="N299" s="38"/>
     </row>
     <row r="300" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J300" s="38"/>
       <c r="K300" s="38"/>
-      <c r="L300" s="54"/>
-      <c r="M300" s="54"/>
+      <c r="L300" s="51"/>
+      <c r="M300" s="51"/>
       <c r="N300" s="38"/>
     </row>
     <row r="301" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J301" s="38"/>
       <c r="K301" s="38"/>
-      <c r="L301" s="54"/>
-      <c r="M301" s="54"/>
+      <c r="L301" s="51"/>
+      <c r="M301" s="51"/>
       <c r="N301" s="38"/>
     </row>
     <row r="302" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J302" s="38"/>
       <c r="K302" s="38"/>
-      <c r="L302" s="54"/>
-      <c r="M302" s="54"/>
+      <c r="L302" s="51"/>
+      <c r="M302" s="51"/>
       <c r="N302" s="38"/>
     </row>
     <row r="303" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J303" s="38"/>
       <c r="K303" s="38"/>
-      <c r="L303" s="54"/>
-      <c r="M303" s="54"/>
+      <c r="L303" s="51"/>
+      <c r="M303" s="51"/>
       <c r="N303" s="38"/>
     </row>
     <row r="304" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J304" s="38"/>
       <c r="K304" s="38"/>
-      <c r="L304" s="54"/>
-      <c r="M304" s="54"/>
+      <c r="L304" s="51"/>
+      <c r="M304" s="51"/>
       <c r="N304" s="38"/>
     </row>
     <row r="305" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J305" s="38"/>
       <c r="K305" s="38"/>
-      <c r="L305" s="54"/>
-      <c r="M305" s="54"/>
+      <c r="L305" s="51"/>
+      <c r="M305" s="51"/>
       <c r="N305" s="38"/>
     </row>
     <row r="306" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J306" s="38"/>
       <c r="K306" s="38"/>
-      <c r="L306" s="54"/>
-      <c r="M306" s="54"/>
+      <c r="L306" s="51"/>
+      <c r="M306" s="51"/>
       <c r="N306" s="38"/>
     </row>
     <row r="307" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J307" s="38"/>
       <c r="K307" s="38"/>
-      <c r="L307" s="54"/>
-      <c r="M307" s="54"/>
+      <c r="L307" s="51"/>
+      <c r="M307" s="51"/>
       <c r="N307" s="38"/>
     </row>
     <row r="308" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J308" s="38"/>
       <c r="K308" s="38"/>
-      <c r="L308" s="54"/>
-      <c r="M308" s="54"/>
+      <c r="L308" s="51"/>
+      <c r="M308" s="51"/>
       <c r="N308" s="38"/>
     </row>
     <row r="309" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J309" s="38"/>
       <c r="K309" s="38"/>
-      <c r="L309" s="54"/>
-      <c r="M309" s="54"/>
+      <c r="L309" s="51"/>
+      <c r="M309" s="51"/>
       <c r="N309" s="38"/>
     </row>
     <row r="310" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J310" s="38"/>
       <c r="K310" s="38"/>
-      <c r="L310" s="54"/>
-      <c r="M310" s="54"/>
+      <c r="L310" s="51"/>
+      <c r="M310" s="51"/>
       <c r="N310" s="38"/>
     </row>
     <row r="311" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J311" s="38"/>
       <c r="K311" s="38"/>
-      <c r="L311" s="54"/>
-      <c r="M311" s="54"/>
+      <c r="L311" s="51"/>
+      <c r="M311" s="51"/>
       <c r="N311" s="38"/>
     </row>
     <row r="312" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J312" s="38"/>
       <c r="K312" s="38"/>
-      <c r="L312" s="54"/>
-      <c r="M312" s="54"/>
+      <c r="L312" s="51"/>
+      <c r="M312" s="51"/>
       <c r="N312" s="38"/>
     </row>
     <row r="313" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J313" s="38"/>
       <c r="K313" s="38"/>
-      <c r="L313" s="54"/>
-      <c r="M313" s="54"/>
+      <c r="L313" s="51"/>
+      <c r="M313" s="51"/>
       <c r="N313" s="38"/>
     </row>
     <row r="314" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J314" s="38"/>
       <c r="K314" s="38"/>
-      <c r="L314" s="54"/>
-      <c r="M314" s="54"/>
+      <c r="L314" s="51"/>
+      <c r="M314" s="51"/>
       <c r="N314" s="38"/>
     </row>
     <row r="315" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J315" s="38"/>
       <c r="K315" s="38"/>
-      <c r="L315" s="54"/>
-      <c r="M315" s="54"/>
+      <c r="L315" s="51"/>
+      <c r="M315" s="51"/>
       <c r="N315" s="38"/>
     </row>
     <row r="316" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J316" s="38"/>
       <c r="K316" s="38"/>
-      <c r="L316" s="54"/>
-      <c r="M316" s="54"/>
+      <c r="L316" s="51"/>
+      <c r="M316" s="51"/>
       <c r="N316" s="38"/>
     </row>
     <row r="317" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J317" s="38"/>
       <c r="K317" s="38"/>
-      <c r="L317" s="54"/>
-      <c r="M317" s="54"/>
+      <c r="L317" s="51"/>
+      <c r="M317" s="51"/>
       <c r="N317" s="38"/>
     </row>
     <row r="318" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J318" s="38"/>
       <c r="K318" s="38"/>
-      <c r="L318" s="54"/>
-      <c r="M318" s="54"/>
+      <c r="L318" s="51"/>
+      <c r="M318" s="51"/>
       <c r="N318" s="38"/>
     </row>
     <row r="319" spans="10:14" x14ac:dyDescent="0.25">
@@ -8623,12 +9043,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="O289:Z289"/>
     <mergeCell ref="O258:Q258"/>
     <mergeCell ref="O259:T259"/>
     <mergeCell ref="O261:Z261"/>
     <mergeCell ref="O286:Q286"/>
     <mergeCell ref="O287:T287"/>
-    <mergeCell ref="O289:Z289"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
